--- a/nirs_water_prediction/result/tmp_svr_opt.xlsx
+++ b/nirs_water_prediction/result/tmp_svr_opt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3863,6 +3863,766 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MSC_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-0.0024</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1.4302</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2.5299</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>3.5091</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>3.5088</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>C=1519.1, gamma=0.0918, epsilo=0.0044, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[0.03619009 0.03601788 0.03381693 0.03600276 0.03849278 0.03468446
+ 0.03660159 0.0370214  0.03587827 0.03748931 0.03498519 0.03483347
+ 0.03414106 0.03527351 0.036238   0.03447122]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SNV_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1.3580</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.8448</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.8449</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>C=236.24, gamma=0.0223, epsilo=0.0582, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[0.03586422 0.0355673  0.03375076 0.0358948  0.03792204 0.03455233
+ 0.03613843 0.03660559 0.03550405 0.03701695 0.03488856 0.03480589
+ 0.0341008  0.03505976 0.03591692 0.03438797]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DWT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-0.2005</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.2930</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.2938</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>C=716.41, gamma=0.5698, epsilo=0.0026, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[0.03620845 0.03622838 0.03468622 0.03630871 0.03690329 0.03454081
+ 0.03580754 0.03573975 0.03528949 0.03843288 0.03860603 0.03496983
+ 0.03460086 0.0353194  0.03556287 0.03464103]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>D1_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6483</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.6862</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>C=1540.6, gamma=37.466, epsilo=0.0203, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[0.03586107 0.03589938 0.03404854 0.03580634 0.03718144 0.03435312
+ 0.03643309 0.036815   0.03562247 0.0377731  0.03518312 0.03462986
+ 0.03411069 0.0348066  0.03613476 0.03516484]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MA_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1.5569</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.4431</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.4428</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>C=1982.4, gamma=0.0407, epsilo=0.0337, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[0.03599834 0.03595609 0.03448704 0.03623085 0.0371057  0.03497155
+ 0.03609163 0.03644505 0.03551576 0.03773817 0.03585127 0.03449585
+ 0.03419328 0.03502151 0.03540012 0.03487923]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.8974</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3.3804</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.9552</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.9559</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>C=1971.0, gamma=24.258, epsilo=0.0149, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[0.03679438 0.03657382 0.0344932  0.03644557 0.03731332 0.03483209
+ 0.03649024 0.03711902 0.03521223 0.03797854 0.03476591 0.03463152
+ 0.03426283 0.03529816 0.03641873 0.03555734]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1.4686</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.2269</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.2277</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>C=1782.2, gamma=0.1005, epsilo=0.0463, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[0.03604843 0.03593427 0.0345205  0.03625658 0.03736529 0.03521903
+ 0.03638235 0.03664516 0.03526939 0.03790414 0.03633673 0.03489953
+ 0.03423144 0.03512198 0.03556267 0.03493773]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1.5702</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.9672</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.9667</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[{'n_components': 30}]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>C=1841.2, gamma=0.4111, epsilo=0.0721, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[0.03687 0.0372  0.03496 0.03661 0.03677 0.03446 0.03645 0.0371  0.03479
+ 0.03766 0.03449 0.03457 0.03424 0.03584 0.03641 0.03557]</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[0.03611835 0.03570964 0.03392573 0.03603579 0.03721451 0.03477301
+ 0.03616477 0.03691349 0.03545852 0.03794279 0.03545155 0.03476183
+ 0.03361537 0.03478901 0.03594192 0.03509091]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_svr_opt.xlsx
+++ b/nirs_water_prediction/result/tmp_svr_opt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4623,6 +4623,6560 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>8.2428</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2.5056</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>23.5636</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23.5632</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>C=1079.8, gamma=960.25, epsilo=0.1722, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[0.70685133 0.69445682 0.72127539 0.71321448 0.71906641 0.71213768
+ 0.68975702 0.70023841 0.69226759 0.71635806 0.64358967 0.63716907
+ 0.62577637 0.62573724 0.63962049 0.6275706  0.61419609 0.61949867
+ 0.61169354 0.64055012 0.44502755 0.45644559 0.46857532 0.33508966
+ 0.32778699 0.31265715 0.31823694 0.72393064 0.71488623 0.70442976
+ 0.66154482 0.61332162 0.61613415 0.62829271 0.63073415 0.59964649
+ 0.60185579 0.63570514 0.56530491 0.72128781 0.73439967 0.72617417
+ 0.74212572 0.71122101 0.71760866 0.61926955 0.60771036 0.61685158
+ 0.58308294 0.52820225 0.53854292 0.72160218 0.69701596 0.60009745
+ 0.58062796 0.6041479  0.61403811 0.56468897 0.51574126 0.53023518
+ 0.52209196 0.48211358 0.51330316 0.70366643 0.72415266 0.55163609
+ 0.54833941 0.63664725 0.62388663 0.60592614 0.60108684 0.50154076
+ 0.46745388 0.73554671 0.7210032  0.69562029 0.71025006 0.66594129
+ 0.67752789 0.58052202 0.58917044 0.14169937 0.12033876 0.62782789
+ 0.69514793 0.47125836 0.61639028 0.72779641 0.61137352 0.50547855
+ 0.60667031 0.46172345]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9830</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>7.6756</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4.3447</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>39.9490</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>39.9496</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>C=1824.4, gamma=1091.7, epsilo=0.0014, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[0.70295242 0.69243917 0.72174347 0.70599049 0.71597098 0.71115062
+ 0.68559192 0.70201304 0.68919152 0.71459297 0.64238361 0.63420157
+ 0.62497231 0.62471046 0.63796657 0.62649853 0.61109438 0.61981827
+ 0.61165472 0.64075176 0.44591307 0.455555   0.47055798 0.33436668
+ 0.32444567 0.31115785 0.3201583  0.72874443 0.71788007 0.70539448
+ 0.66177908 0.61321973 0.61488934 0.63027297 0.63386807 0.59810794
+ 0.6037064  0.64328132 0.56203847 0.71948431 0.73871748 0.72492754
+ 0.74722363 0.70786895 0.71279347 0.62202147 0.60825415 0.6173632
+ 0.58364775 0.52767253 0.53783189 0.71862069 0.69490569 0.60201181
+ 0.5777717  0.60462696 0.61649343 0.56322781 0.51534846 0.52649887
+ 0.520136   0.48035848 0.52066559 0.7033436  0.72411599 0.55387958
+ 0.5470175  0.63563094 0.62250503 0.60665924 0.60373536 0.49818499
+ 0.46891334 0.73625867 0.71777342 0.69268492 0.70349829 0.66983759
+ 0.67935852 0.58409859 0.58756453 0.14601838 0.12581829 0.62655771
+ 0.69640011 0.47063757 0.61731214 0.72866654 0.61166373 0.5053476
+ 0.60777128 0.46001366]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.9966</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>6031.9768</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>5.0346</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>38.7445</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>38.7444</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>C=1906.4, gamma=477.71, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[0.71998289 0.71998074 0.73002219 0.72997928 0.72002308 0.72002036
+ 0.69998328 0.70002212 0.69997901 0.70002463 0.63997787 0.64002164
+ 0.63002063 0.62997651 0.64002219 0.63997541 0.61997656 0.62001767
+ 0.6199787  0.62002473 0.43002023 0.42997923 0.45998247 0.33997787
+ 0.33997789 0.31002141 0.31002083 0.72002611 0.72002091 0.66001927
+ 0.66001784 0.61998034 0.6199833  0.62002007 0.6200189  0.61998731
+ 0.61998519 0.5800168  0.57997743 0.73998158 0.73997996 0.72001208
+ 0.71997937 0.7199801  0.71997713 0.62001702 0.6199797  0.5900164
+ 0.59001862 0.52998198 0.52998135 0.70002404 0.70002208 0.59998142
+ 0.59998226 0.60998078 0.61002099 0.54002405 0.53998092 0.52002049
+ 0.51997683 0.50997873 0.51001589 0.71001767 0.71002126 0.55002202
+ 0.54997719 0.63002346 0.62998242 0.60002017 0.59997352 0.46001993
+ 0.46001865 0.73001982 0.72997466 0.70998048 0.70997288 0.66997993
+ 0.67001888 0.58998151 0.58997671 0.10002409 0.10002018 0.62997613
+ 0.72997893 0.46002391 0.6199786  0.72002105 0.61002503 0.5099792
+ 0.59998331 0.46002196]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-0.0520</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-0.0448</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.9783</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2.2542</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>4.1103</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>4.1105</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>C=0.0011, gamma=846.05, epsilo=0.9896, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[0.62935346 0.62918087 0.62944202 0.62947574 0.62940084 0.62966636
+ 0.62967248 0.62940578 0.62930113 0.62926099 0.629268   0.62941763
+ 0.62937825 0.62937828 0.62953221 0.62955164 0.62948417 0.6294171
+ 0.62947791 0.62907579 0.62903304 0.62899851 0.62915013 0.62901455
+ 0.62906814 0.62897848 0.62899955 0.63004823 0.63007923 0.62901195
+ 0.62971034 0.62932798 0.6293605  0.62959724 0.629591   0.62903643
+ 0.62952884 0.62918633 0.62840581 0.62990492 0.62981688 0.62997734
+ 0.6295497  0.63018798 0.63005822 0.62989889 0.62977624 0.62865878
+ 0.62916509 0.62838424 0.62838945 0.6300163  0.63014068 0.62864014
+ 0.62857606 0.62925983 0.62935583 0.62842772 0.62865499 0.62877881
+ 0.62866177 0.62886313 0.62896843 0.62997056 0.62987027 0.62909401
+ 0.62876904 0.62956001 0.6292623  0.62969578 0.62961903 0.62867671
+ 0.62875144 0.63024536 0.63016802 0.62974848 0.62986264 0.62980212
+ 0.62975521 0.62858432 0.62874365 0.62901432 0.62900712 0.6294598
+ 0.62962959 0.62901249 0.62931321 0.63020809 0.62934958 0.62871646
+ 0.62989736 0.62865073]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.9932</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.9969</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>17.8389</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2.7269</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>7.3683</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>7.3689</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>C=26.966, gamma=735.31, epsilo=0.1945, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[0.71805746 0.7164903  0.72805322 0.72805453 0.72194393 0.71958358
+ 0.69805593 0.70030482 0.69805423 0.70995744 0.6380528  0.63805486
+ 0.63071726 0.62805235 0.64174655 0.6380544  0.61805502 0.62068141
+ 0.61805734 0.62194759 0.43194243 0.437512   0.46194394 0.33617502
+ 0.33805309 0.3119475  0.30805428 0.71805089 0.71720134 0.66413223
+ 0.66194334 0.61577653 0.61805146 0.62194682 0.62762224 0.61074438
+ 0.61805544 0.60994083 0.57805704 0.73510723 0.7380567  0.72460687
+ 0.72194377 0.71825115 0.71859514 0.62194565 0.60923488 0.62354865
+ 0.59194139 0.52459884 0.53194459 0.70844247 0.70130495 0.6019452
+ 0.59059759 0.60805238 0.61194463 0.55268587 0.52346297 0.52194623
+ 0.52194747 0.50805401 0.51194563 0.70645247 0.71204768 0.55029202
+ 0.55026112 0.63194632 0.62805524 0.61699879 0.60291095 0.47825022
+ 0.458054   0.73279518 0.72805186 0.70805464 0.71054956 0.65830659
+ 0.66817302 0.58719724 0.59194772 0.11469384 0.10194708 0.6289669
+ 0.72805647 0.46374105 0.62003594 0.72668858 0.61097814 0.50805344
+ 0.60969227 0.46208542]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.9992</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>34.9597</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2.7612</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>6.2778</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>6.2772</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>C=126.55, gamma=710.45, epsilo=0.0132, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[0.71986953 0.71986349 0.72986834 0.7298651  0.72013416 0.71986521
+ 0.69986923 0.70013223 0.69986612 0.70013412 0.63986805 0.63986836
+ 0.63013268 0.62986694 0.64013281 0.63986594 0.61986685 0.62013022
+ 0.61986566 0.6201312  0.43013233 0.43013159 0.46013461 0.33986734
+ 0.33986836 0.31013174 0.31013161 0.71986554 0.71986539 0.66233521
+ 0.66013201 0.619867   0.61986951 0.62013379 0.62211735 0.61986471
+ 0.61986848 0.60161363 0.57986841 0.73984404 0.73986859 0.7201355
+ 0.72013221 0.71986519 0.71986573 0.62013172 0.61537113 0.61101032
+ 0.5901308  0.52986679 0.52986535 0.70877265 0.70012819 0.60013054
+ 0.59182138 0.60986672 0.61013011 0.54013308 0.53416017 0.52013318
+ 0.52013346 0.50986827 0.51013227 0.70986809 0.710135   0.55012879
+ 0.54986458 0.63012934 0.62986674 0.60409872 0.5999069  0.46013341
+ 0.45987096 0.73319945 0.72986364 0.70986606 0.70986333 0.66987064
+ 0.67013238 0.58986876 0.58986964 0.10013169 0.10013282 0.62986999
+ 0.72986632 0.46053275 0.61986638 0.72584868 0.61013375 0.50986467
+ 0.60012867 0.4601338 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.9925</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.9942</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>13.0918</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2.9663</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>8.8801</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>8.8811</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>C=279.47, gamma=199.04, epsilo=0.0043, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[0.71995997 0.71509752 0.72995557 0.73004279 0.72004505 0.72004338
+ 0.70004357 0.700047   0.70004248 0.71767351 0.63665987 0.64481828
+ 0.63004267 0.62995871 0.63995513 0.6315247  0.62004203 0.62004456
+ 0.61995461 0.62022257 0.43382715 0.43004477 0.45995727 0.32652112
+ 0.339955   0.31895125 0.3100436  0.71995547 0.71400268 0.66004577
+ 0.6593864  0.61739345 0.61648163 0.62047469 0.62614012 0.59989246
+ 0.62004148 0.60399854 0.57800201 0.73420341 0.73995367 0.72040727
+ 0.7242695  0.72003901 0.71932153 0.61981883 0.61083551 0.63401049
+ 0.59664411 0.52240299 0.53017472 0.71198021 0.70467012 0.60920539
+ 0.58827146 0.60869516 0.61004349 0.56677633 0.51240561 0.5209539
+ 0.51995705 0.51004754 0.50996069 0.70925344 0.71759412 0.55406802
+ 0.55004395 0.63004028 0.61894842 0.6233495  0.60004213 0.48915644
+ 0.45277453 0.73405523 0.72995505 0.7092389  0.71004524 0.65257349
+ 0.67004116 0.57300034 0.59004838 0.10004716 0.10004583 0.63004596
+ 0.72892784 0.46382637 0.61995357 0.72234223 0.61174271 0.50104047
+ 0.61485717 0.46004217]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>59.0751</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3.0193</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>4.9058</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>4.9058</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>C=236.49, gamma=690.32, epsilo=0.0090, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[0.71990789 0.71991129 0.72990837 0.72990558 0.72009253 0.71990601
+ 0.69990951 0.70008779 0.69990741 0.70009195 0.63990745 0.63991009
+ 0.63009222 0.62990916 0.64009145 0.63990857 0.61990772 0.62009081
+ 0.61990899 0.62009278 0.43008895 0.43008988 0.46009019 0.33990609
+ 0.33990545 0.31009218 0.31009139 0.7200888  0.71991188 0.66009117
+ 0.6600905  0.61990878 0.61990948 0.62008987 0.62009012 0.6199081
+ 0.61990975 0.5962161  0.57990781 0.73990854 0.73990954 0.72009151
+ 0.72008795 0.71990787 0.71991164 0.62009298 0.61829139 0.59821532
+ 0.59009377 0.52990633 0.52990556 0.70605813 0.70009203 0.6000894
+ 0.59689908 0.60990944 0.61009065 0.54009194 0.53990682 0.52009182
+ 0.5200923  0.50990926 0.51009209 0.70991022 0.71009155 0.55009458
+ 0.54990858 0.63008742 0.62990496 0.60009343 0.60008721 0.46009119
+ 0.45990805 0.73231766 0.72990887 0.70990695 0.70991027 0.66991129
+ 0.67009232 0.58990815 0.58990858 0.10008658 0.10008788 0.62990839
+ 0.72990841 0.46009067 0.61990775 0.72526953 0.61009409 0.50990924
+ 0.60009112 0.4600902 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>42.6262</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2.9939</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>5.7712</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>5.7719</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>C=215.66, gamma=617.39, epsilo=0.0070, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[0.7199283  0.71992814 0.72992998 0.72992826 0.72006958 0.71992818
+ 0.69993177 0.70006761 0.69992778 0.70007342 0.6399281  0.64006966
+ 0.6300709  0.62992715 0.64007237 0.63992714 0.619927   0.62006844
+ 0.61992871 0.62007159 0.43006769 0.43007053 0.46007078 0.33992884
+ 0.33992721 0.31007164 0.31007501 0.71992825 0.71993028 0.66006834
+ 0.66006954 0.61992788 0.61992976 0.62007438 0.62069107 0.61992985
+ 0.61993014 0.59861838 0.57993137 0.73992819 0.7399287  0.72007258
+ 0.72007361 0.71992931 0.71992844 0.62007212 0.61718318 0.60670842
+ 0.59006876 0.5299273  0.52992617 0.7081442  0.70007171 0.60006804
+ 0.59356406 0.60992666 0.61006918 0.54007311 0.53663895 0.52007364
+ 0.52007345 0.5099286  0.51006903 0.70992673 0.7100707  0.55006896
+ 0.54992778 0.63007073 0.62992835 0.60099622 0.59993328 0.46007378
+ 0.45993328 0.7330772  0.72992567 0.70992766 0.70992726 0.66992938
+ 0.67007277 0.58992717 0.58992819 0.10006668 0.10006869 0.62992712
+ 0.72992859 0.46006944 0.61992719 0.72548821 0.61007094 0.50992762
+ 0.60006792 0.46007152]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.9838</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>9.4282</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2.7226</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>3.1947</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>3.1945</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>C=417.36, gamma=63.878, epsilo=0.0345, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[0.7318751  0.70654832 0.733651   0.7303447  0.71965039 0.7251646
+ 0.70892558 0.69965892 0.70952716 0.71930241 0.62380911 0.64775511
+ 0.62965384 0.63260754 0.64282165 0.63381144 0.63381144 0.62000263
+ 0.61132494 0.62611522 0.4522567  0.45081943 0.45970505 0.3294237
+ 0.34643758 0.33421092 0.31612009 0.7180493  0.70865803 0.64465407
+ 0.66113671 0.6179887  0.61568457 0.63075361 0.63687306 0.60664026
+ 0.63194959 0.60896372 0.5718354  0.73100399 0.73036353 0.7203431
+ 0.72470891 0.72076073 0.72034389 0.61727375 0.61066818 0.62647743
+ 0.60109324 0.53221442 0.54190663 0.70960246 0.70738943 0.60471809
+ 0.58533168 0.61034681 0.6017028  0.57792634 0.51364217 0.53952709
+ 0.5196487  0.5150773  0.51465502 0.69928054 0.72086651 0.55364841
+ 0.55138251 0.61905921 0.59720055 0.63960215 0.62224337 0.47874166
+ 0.4507133  0.73258947 0.73207569 0.70854286 0.70570365 0.65837835
+ 0.67034268 0.5647525  0.58935836 0.09965983 0.10035053 0.63494353
+ 0.7303453  0.44444095 0.62452886 0.71810145 0.60867266 0.50420077
+ 0.63022968 0.46552306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.9666</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5.3647</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2.4180</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.9709</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.9712</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>C=1934.8, gamma=2.2313, epsilo=0.0411, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[0.71782879 0.69548063 0.74342364 0.72049316 0.72041651 0.72945515
+ 0.7254206  0.69365962 0.70431668 0.71295278 0.65429556 0.62075162
+ 0.60865893 0.61348399 0.65640166 0.62080157 0.64601691 0.61995263
+ 0.61936375 0.66081323 0.45947408 0.47301536 0.39455256 0.35235492
+ 0.37321475 0.31241615 0.32014997 0.70897066 0.71097137 0.63288357
+ 0.660783   0.61664913 0.60563342 0.63005958 0.6345554  0.60597803
+ 0.63968675 0.61045832 0.58098358 0.73643374 0.74302359 0.72829652
+ 0.7204009  0.71745304 0.72813113 0.6095169  0.60076739 0.61949795
+ 0.60143128 0.55821043 0.56714145 0.71105819 0.70686191 0.60332954
+ 0.58457979 0.62231903 0.60626449 0.60632547 0.53083276 0.56027752
+ 0.50980074 0.49757245 0.46917798 0.69169198 0.71039892 0.536904
+ 0.55017766 0.5853604  0.58000608 0.64734027 0.62703229 0.47740598
+ 0.45821138 0.72282662 0.72386222 0.7009273  0.69702604 0.67157668
+ 0.68663754 0.54979847 0.5714199  0.09697391 0.10105277 0.61059258
+ 0.72776643 0.37970427 0.62040828 0.72250425 0.61126495 0.50116237
+ 0.64266934 0.48521241]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.9952</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>20.7381</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2.8990</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>4.5264</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>4.5264</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>C=483.38, gamma=306.13, epsilo=0.3601, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[0.71640093 0.71639757 0.726559   0.73260347 0.72360358 0.72360006
+ 0.70360164 0.70269277 0.69639856 0.70360535 0.63639829 0.64360017
+ 0.63360279 0.63336876 0.64314848 0.63639947 0.62360074 0.62360451
+ 0.6163976  0.62360677 0.4336019  0.43360145 0.45639548 0.33639468
+ 0.33639535 0.31360286 0.30993035 0.71639818 0.71766416 0.66359964
+ 0.66129156 0.61874349 0.61639932 0.62359808 0.62720085 0.61639579
+ 0.61640111 0.60528353 0.57639986 0.73640387 0.73639571 0.72360219
+ 0.72360001 0.71639609 0.71639628 0.61958979 0.61145411 0.61932555
+ 0.59360665 0.52639767 0.52773839 0.70789054 0.69956268 0.6035985
+ 0.58635444 0.60639918 0.61360462 0.54372305 0.52119206 0.5236045
+ 0.51639885 0.50640388 0.50640157 0.70880551 0.7135997  0.55360193
+ 0.54672051 0.63359866 0.62639572 0.60667927 0.60215405 0.47202542
+ 0.45640266 0.73354226 0.73026888 0.70661395 0.71283456 0.6664004
+ 0.67360085 0.58639486 0.59054529 0.10360491 0.1035984  0.63207147
+ 0.72639732 0.46523601 0.62214977 0.72360389 0.61267825 0.50640116
+ 0.60572826 0.46360286]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.9954</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>28.5597</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3.1292</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>4.1517</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>4.1520</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>C=256.76, gamma=470.68, epsilo=0.0249, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[0.71974917 0.71974983 0.72975067 0.72974856 0.72025057 0.71975005
+ 0.7002506  0.70024995 0.69974747 0.70024874 0.63974879 0.64024894
+ 0.63024975 0.62975015 0.64025351 0.63975109 0.61975069 0.6202496
+ 0.61975367 0.62024856 0.43024856 0.43024701 0.45975026 0.33974875
+ 0.33974941 0.31024872 0.31024996 0.71974742 0.71974845 0.66024838
+ 0.66025108 0.61974939 0.61974877 0.62322453 0.62414535 0.61975212
+ 0.61974882 0.60207704 0.57975011 0.73975183 0.73975109 0.72024968
+ 0.7202488  0.71974758 0.71878887 0.61995222 0.61472777 0.61678149
+ 0.59025003 0.52882736 0.52890562 0.71051591 0.70025103 0.60024855
+ 0.58930022 0.60975121 0.61025061 0.54024874 0.52595413 0.52025158
+ 0.51974914 0.50975088 0.5102502  0.71025269 0.71025329 0.5502508
+ 0.54974759 0.63024941 0.62974852 0.60024905 0.60024656 0.46615451
+ 0.45974927 0.73335124 0.72974977 0.70942847 0.71024966 0.66895109
+ 0.67025158 0.58974976 0.59024996 0.10025156 0.10025123 0.62975051
+ 0.72975192 0.4602513  0.62025134 0.72480413 0.61025167 0.50974998
+ 0.60216747 0.46024659]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.9921</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>11.2229</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2.5874</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3.0822</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>3.0815</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>C=139.14, gamma=144.52, epsilo=0.0010, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[0.72723279 0.70899669 0.73000925 0.73001149 0.72000886 0.72181165
+ 0.704634   0.69998685 0.70421004 0.71728879 0.63148641 0.64770358
+ 0.62998676 0.62998569 0.64001124 0.63051178 0.62727348 0.6200115
+ 0.6200127  0.63257621 0.44936392 0.44513683 0.46132843 0.32957181
+ 0.34001106 0.32430728 0.3117183  0.7199896  0.71069581 0.65006367
+ 0.6600133  0.61473861 0.61397649 0.62195725 0.63105807 0.59597356
+ 0.62566173 0.60852765 0.57268226 0.7316499  0.73679775 0.72405505
+ 0.72544524 0.72428983 0.71855034 0.61734273 0.61100093 0.62744595
+ 0.60233033 0.52487052 0.53755891 0.71001604 0.70765469 0.60747104
+ 0.58733376 0.60925371 0.60638503 0.56520941 0.50968099 0.53070617
+ 0.52000602 0.51579297 0.50998959 0.70281662 0.72055644 0.55353743
+ 0.5500058  0.63000853 0.60686958 0.63148311 0.60723498 0.48356744
+ 0.4504121  0.7352863  0.73418753 0.70998836 0.70755368 0.65203036
+ 0.67001394 0.56933322 0.59150535 0.10001504 0.10001254 0.63458195
+ 0.72335024 0.45191018 0.62030096 0.72149462 0.60995739 0.50208808
+ 0.61926982 0.46001129]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.9992</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>35.9914</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2.6684</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>3.1227</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>3.1226</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>C=86.679, gamma=937.25, epsilo=0.0022, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[0.71997619 0.71997705 0.72997788 0.72997322 0.72002275 0.71997631
+ 0.6999735  0.70002221 0.69997305 0.70002348 0.63997907 0.63997351
+ 0.63001947 0.62997332 0.64002355 0.63997678 0.61997701 0.6200239
+ 0.61997952 0.62002118 0.43002289 0.4300228  0.46002528 0.3399776
+ 0.33997634 0.3100232  0.31002436 0.72002035 0.71997967 0.66465368
+ 0.66002518 0.61997786 0.6199807  0.62001962 0.62252329 0.61997571
+ 0.61997858 0.60355339 0.57997513 0.73997787 0.73997954 0.72002433
+ 0.72002276 0.71997825 0.71998161 0.62002428 0.61502182 0.60856626
+ 0.59002462 0.52998074 0.52997728 0.70747895 0.70002411 0.6000206
+ 0.59308359 0.60997566 0.61002186 0.54001951 0.53989452 0.52002302
+ 0.52002106 0.50997696 0.51002398 0.70997625 0.71002601 0.55002138
+ 0.54997341 0.63002461 0.62997744 0.60365728 0.59997917 0.46001863
+ 0.45997543 0.73259623 0.72997514 0.70997559 0.7099745  0.6699753
+ 0.67002291 0.58997924 0.58997852 0.10037423 0.10002131 0.62997723
+ 0.72997759 0.46072236 0.61997678 0.72610129 0.61002411 0.50997653
+ 0.6000197  0.4600216 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5.2895</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2.3031</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.7280</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2.7275</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>C=1214.8, gamma=1.8329, epsilo=0.3070, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[0.71103092 0.6891414  0.7367656  0.7186398  0.71664498 0.72970133
+ 0.71925325 0.69493074 0.70306807 0.71387901 0.65752096 0.6189969
+ 0.60570491 0.60972252 0.6543416  0.61939207 0.64171522 0.61908075
+ 0.61737533 0.65965004 0.4636809  0.47841272 0.398071   0.36009259
+ 0.37682707 0.30914479 0.31946869 0.70854494 0.70650874 0.63659526
+ 0.66230743 0.61692883 0.60683656 0.63083205 0.63629017 0.60743197
+ 0.64095664 0.61348636 0.58375267 0.7344898  0.74346053 0.72642261
+ 0.72108883 0.71380736 0.72727488 0.61208545 0.60125842 0.62021269
+ 0.60100657 0.55905473 0.56977724 0.71176446 0.7092237  0.60346399
+ 0.58631375 0.6213257  0.60669674 0.60676276 0.53229606 0.55886828
+ 0.51092182 0.49830452 0.47024944 0.69125657 0.71047225 0.53647947
+ 0.55127336 0.5876663  0.58044049 0.64602437 0.62689446 0.47867501
+ 0.45791845 0.7218602  0.72175001 0.69907696 0.69730874 0.67219317
+ 0.68794622 0.54515485 0.56941813 0.09259584 0.10370688 0.60735994
+ 0.72280592 0.38232321 0.62147135 0.72205239 0.61059474 0.50121919
+ 0.64284934 0.48702863]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.9830</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.9877</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>9.0234</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2.6115</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3.0763</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>3.0766</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>C=479.82, gamma=55.652, epsilo=0.0091, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[0.73282674 0.70648987 0.73516991 0.73009636 0.71990636 0.72375595
+ 0.71108274 0.69990988 0.71095281 0.71937285 0.62440322 0.64707731
+ 0.62990962 0.63327452 0.64320994 0.63296807 0.63529573 0.62008994
+ 0.61107761 0.62860148 0.45120939 0.45036434 0.46009027 0.32824043
+ 0.34800884 0.3341387  0.3158398  0.71756929 0.70881753 0.6426983
+ 0.66221483 0.61856807 0.61408111 0.63214797 0.63752715 0.60766505
+ 0.63223391 0.60967098 0.57201942 0.73028134 0.7318728  0.72009032
+ 0.72563798 0.72087628 0.72009334 0.6166134  0.60939056 0.62495964
+ 0.60196908 0.53304903 0.54211843 0.70818411 0.70734811 0.60458098
+ 0.5843071  0.61008586 0.60030883 0.58092924 0.51525059 0.54268769
+ 0.51990628 0.51445872 0.51638589 0.699352   0.72047221 0.55300536
+ 0.55034523 0.61493137 0.59697591 0.64264834 0.62518775 0.48195351
+ 0.45407447 0.7325748  0.7307368  0.70819602 0.70525598 0.65914716
+ 0.67029351 0.56352018 0.5886018  0.09990976 0.10009268 0.63433861
+ 0.73009031 0.44300128 0.62481894 0.71771918 0.60788916 0.50419133
+ 0.63366618 0.46668484]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.9944</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.9974</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>19.7706</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2.5220</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.9626</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.9624</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>C=52.535, gamma=633.49, epsilo=0.1268, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[0.71873128 0.71873404 0.72873123 0.72872824 0.72127401 0.71909785
+ 0.69873328 0.701271   0.69873032 0.70841817 0.63873192 0.64001446
+ 0.63126823 0.62873056 0.64127021 0.63872798 0.61872977 0.62126925
+ 0.61873051 0.62127267 0.43126673 0.43126971 0.46126816 0.33512181
+ 0.33872991 0.31127078 0.30930262 0.71872731 0.71873065 0.66810938
+ 0.66126869 0.616445   0.61873419 0.62127001 0.6264426  0.61554915
+ 0.61873087 0.6071117  0.57873302 0.73598165 0.73872987 0.72382474
+ 0.72126473 0.71872879 0.71872867 0.62126999 0.61031158 0.62404394
+ 0.59178851 0.52412502 0.52873069 0.7066236  0.70126815 0.60126594
+ 0.58971352 0.60873074 0.61127029 0.5494152  0.5224837  0.52127247
+ 0.52127111 0.50873179 0.51127066 0.70824093 0.71126589 0.55126691
+ 0.54873112 0.63127355 0.62873253 0.61430112 0.60143621 0.47554321
+ 0.45873118 0.73347468 0.72817128 0.70872814 0.7105381  0.65980902
+ 0.6712722  0.58873396 0.5912693  0.10895232 0.10126481 0.62926458
+ 0.72873054 0.46285004 0.61960308 0.72647211 0.61071821 0.50872891
+ 0.60780527 0.46127014]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.9972</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>666.3658</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2.8229</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>3.3576</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>3.3584</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>C=452.44, gamma=991.68, epsilo=0.0188, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[0.71981053 0.71981346 0.7298117  0.72981149 0.72019143 0.71981092
+ 0.69980848 0.70018891 0.6998109  0.70019045 0.63980936 0.63981221
+ 0.63019122 0.62981403 0.64019076 0.63981012 0.61981053 0.62018945
+ 0.61981068 0.62019139 0.43018929 0.43018907 0.46019128 0.33981103
+ 0.33981102 0.31019028 0.31019224 0.72019155 0.72018908 0.66019283
+ 0.660189   0.61981011 0.61981012 0.62018946 0.62018871 0.61981092
+ 0.61981193 0.58018929 0.57981144 0.73981125 0.73981114 0.72018553
+ 0.71980794 0.71980805 0.71980796 0.62019005 0.6198104  0.5901872
+ 0.59018938 0.52981487 0.5301919  0.7001898  0.70019089 0.59980978
+ 0.59980777 0.60980897 0.61018677 0.54019275 0.53980898 0.52019007
+ 0.51981355 0.5098124  0.51019324 0.70981125 0.71018694 0.55019037
+ 0.54980933 0.63018848 0.62981186 0.6001871  0.59981047 0.46018944
+ 0.46018935 0.73018602 0.72980907 0.7098098  0.70980786 0.66981035
+ 0.67018581 0.5898106  0.58981078 0.10018876 0.10019029 0.63010895
+ 0.72981187 0.46018979 0.61980917 0.72018887 0.61006678 0.50981136
+ 0.60019315 0.46018931]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.9788</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>8.2248</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2.3013</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>3.6193</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>3.6193</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>C=11.884, gamma=158.60, epsilo=0.1613, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[0.72751712 0.70417658 0.7299614  0.72838423 0.72183561 0.72372036
+ 0.70562973 0.6978202  0.70426901 0.71699261 0.6453457  0.64310114
+ 0.63161554 0.6337703  0.64796104 0.6347593  0.62807932 0.6157365
+ 0.61228482 0.63684575 0.45134931 0.46388758 0.47711608 0.34550208
+ 0.39234979 0.33144823 0.31286269 0.71053881 0.70425611 0.64977759
+ 0.6637308  0.61976248 0.61435944 0.62571081 0.63487162 0.59987741
+ 0.63781476 0.61614238 0.57649004 0.73201885 0.72679871 0.72175942
+ 0.72161573 0.71952956 0.72414471 0.62644999 0.60831364 0.62176849
+ 0.59902298 0.54589253 0.55655658 0.72057179 0.71856951 0.60161067
+ 0.58561925 0.61161542 0.6071119  0.58422725 0.51981118 0.54130695
+ 0.50767935 0.51375671 0.50838595 0.70086651 0.71692061 0.54713969
+ 0.5442502  0.62313344 0.60029868 0.63209205 0.6174852  0.46876533
+ 0.45665679 0.7292179  0.73161073 0.69847591 0.70619723 0.66482899
+ 0.67576908 0.55852456 0.58902392 0.10369108 0.10013272 0.63227391
+ 0.71982068 0.44037659 0.62680024 0.72331211 0.6095361  0.50437663
+ 0.63203047 0.47898339]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.9993</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>37.4485</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>3.3316</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>8.9330</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>8.9336</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>C=274.61, gamma=535.60, epsilo=0.0015, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[0.71998467 0.71998329 0.72998575 0.72998219 0.720015   0.71998332
+ 0.69998523 0.70001435 0.69998152 0.70001474 0.6399832  0.64001634
+ 0.63001639 0.62998492 0.64001749 0.63998516 0.61998427 0.62001324
+ 0.61998517 0.6200162  0.43001342 0.43001316 0.46001562 0.33998266
+ 0.33998505 0.31001448 0.31001265 0.71998505 0.7199836  0.66001701
+ 0.66005848 0.61998287 0.61998201 0.62001509 0.6211045  0.61998399
+ 0.61998442 0.59936351 0.57998346 0.73998191 0.73998514 0.72001651
+ 0.7200156  0.71998407 0.71998548 0.62001907 0.61692835 0.61052263
+ 0.59001377 0.52998089 0.52998208 0.7086995  0.70001894 0.60001612
+ 0.59219197 0.60998305 0.61001315 0.54001425 0.53293124 0.52001759
+ 0.51998529 0.50998265 0.5100142  0.71001814 0.7100142  0.55001472
+ 0.54997992 0.63001787 0.62998527 0.60001388 0.59998406 0.46001655
+ 0.45998334 0.73286005 0.72998569 0.70998345 0.70998446 0.66998568
+ 0.67001624 0.5899856  0.58998579 0.10001162 0.10001266 0.62998436
+ 0.72998613 0.46001819 0.61999568 0.72524372 0.61001587 0.50998162
+ 0.6000172  0.46001261]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.9949</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.9972</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>18.8801</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2.4664</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>3.4743</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>3.4749</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>C=128.03, gamma=421.46, epsilo=0.2429, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[0.71756844 0.71757008 0.72756647 0.72756737 0.7224283  0.72242824
+ 0.70180441 0.69976215 0.6975686  0.70863133 0.63757035 0.64243042
+ 0.63242198 0.62892711 0.64177331 0.63756968 0.61792274 0.62193772
+ 0.61756676 0.6224289  0.43242666 0.43243031 0.45756972 0.33728466
+ 0.33757141 0.31243067 0.3115226  0.71756767 0.71756702 0.6631882
+ 0.66090371 0.61757248 0.61757433 0.622432   0.62700132 0.61230748
+ 0.61757253 0.60467035 0.57757089 0.73756908 0.73757006 0.72243175
+ 0.72243066 0.71756789 0.71756824 0.61838347 0.60800223 0.62490306
+ 0.59378872 0.52549818 0.52763343 0.70785139 0.70031031 0.60243203
+ 0.58594285 0.60757274 0.61242789 0.55442528 0.51995009 0.52242726
+ 0.52028649 0.50756955 0.51243369 0.70756813 0.71334503 0.55242629
+ 0.55016141 0.63242824 0.62756953 0.61421626 0.60243099 0.4737561
+ 0.45756903 0.7331427  0.72842939 0.70756947 0.71243121 0.66058631
+ 0.67243219 0.58669754 0.59232036 0.10242872 0.1024271  0.63087611
+ 0.7275718  0.46407611 0.62101392 0.72356305 0.6110562  0.50756942
+ 0.60966251 0.46242622]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.9973</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.9995</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>47.1394</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2.4404</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>3.1926</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>3.1928</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>C=1099.0, gamma=858.77, epsilo=0.2899, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[0.71710117 0.71710009 0.7271042  0.72710175 0.72290218 0.72028922
+ 0.69710252 0.69895808 0.69710011 0.70289816 0.63710248 0.63765732
+ 0.62901275 0.62846182 0.64164812 0.63709762 0.61800035 0.61893511
+ 0.61710263 0.6229033  0.43290078 0.43289804 0.46289962 0.33710007
+ 0.33709888 0.31289833 0.31289796 0.7189404  0.7171006  0.66289886
+ 0.66048023 0.61710028 0.6171005  0.62290324 0.6229023  0.61709918
+ 0.61709765 0.58290269 0.5770986  0.73710042 0.73709984 0.72289791
+ 0.71709969 0.71709561 0.71756011 0.62290323 0.61710134 0.59290135
+ 0.58710245 0.52710122 0.53216578 0.7029017  0.69796511 0.59709768
+ 0.59709712 0.60710236 0.61290031 0.54290093 0.53709588 0.52290235
+ 0.51954193 0.50709989 0.51290148 0.70709725 0.71290024 0.55142598
+ 0.55099573 0.63289758 0.62709822 0.60290261 0.59710396 0.46290139
+ 0.46289928 0.73290129 0.72709901 0.7070989  0.7070992  0.66709975
+ 0.67290206 0.58709827 0.59165047 0.10290009 0.10290144 0.62942362
+ 0.72709939 0.46290301 0.61815267 0.72289883 0.61032658 0.50710058
+ 0.6029012  0.46289809]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.9965</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.9999</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>134.4347</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>3.6417</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>4.4022</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>4.4027</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>C=472.34, gamma=613.36, epsilo=0.0026, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>[0.71997144 0.71997435 0.7300297  0.72997238 0.72002896 0.72002654
+ 0.69997502 0.70002741 0.69997162 0.70002849 0.63997183 0.64002947
+ 0.63002652 0.62997191 0.640028   0.63997303 0.61997264 0.62002551
+ 0.61997368 0.62002834 0.43002458 0.42997272 0.46003106 0.33997474
+ 0.33997288 0.31002608 0.31002732 0.72002841 0.72002828 0.66003029
+ 0.66002635 0.6199705  0.61997096 0.62002605 0.6200283  0.61997642
+ 0.61997318 0.58809201 0.57997321 0.73997183 0.73997627 0.72002736
+ 0.72002868 0.71997245 0.71997141 0.62002786 0.61997081 0.59003002
+ 0.59002907 0.52997314 0.52997054 0.7000287  0.70002968 0.60002595
+ 0.59997155 0.60996894 0.61002326 0.54002949 0.53997046 0.52002978
+ 0.52002738 0.50997286 0.5100286  0.70996953 0.71002477 0.55002675
+ 0.54997017 0.63002461 0.6299744  0.60002544 0.60002839 0.46002908
+ 0.46002927 0.73077738 0.72997157 0.70997497 0.70997385 0.66997082
+ 0.67002532 0.58997321 0.58997276 0.10002529 0.10002566 0.62997671
+ 0.72997434 0.46003062 0.61996958 0.72370161 0.61002466 0.50997375
+ 0.60002934 0.46002561]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.9950</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>22.9279</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>3.8331</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4.9287</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4.9289</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>C=666.68, gamma=285.05, epsilo=0.0180, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[0.7198198  0.71982046 0.72981859 0.7298173  0.72017803 0.72017983
+ 0.70018389 0.70017985 0.69981865 0.70017592 0.63982305 0.64017789
+ 0.63018006 0.62981776 0.64018217 0.63981723 0.61981791 0.62017976
+ 0.61981684 0.62018016 0.43017621 0.43017955 0.45981771 0.33981921
+ 0.33981684 0.31017933 0.31017931 0.71943017 0.7198231  0.66017926
+ 0.65982217 0.61982274 0.61632524 0.62486257 0.62447588 0.61982375
+ 0.61982387 0.60230568 0.57982057 0.73982031 0.73981866 0.72017922
+ 0.72017928 0.71981974 0.71756345 0.61981823 0.61293651 0.62329265
+ 0.59018737 0.52730415 0.52539349 0.71347551 0.7001817  0.60018089
+ 0.58680712 0.6098202  0.61018151 0.54914207 0.52215931 0.5201817
+ 0.51982153 0.50981834 0.50981827 0.71017939 0.71032519 0.55018412
+ 0.54981634 0.6301839  0.62981905 0.60017857 0.60017756 0.47188886
+ 0.45982006 0.73272491 0.72981772 0.70789192 0.7101823  0.66523557
+ 0.67018523 0.58981804 0.59018122 0.1001767  0.10017586 0.62981917
+ 0.72982253 0.46214589 0.62084031 0.72397864 0.61162208 0.50981796
+ 0.60616899 0.4601775 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.9953</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.9982</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>23.8812</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2.5781</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>3.5702</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>3.5698</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>C=93.265, gamma=623.08, epsilo=0.0062, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[0.71993681 0.71993474 0.72994096 0.72993756 0.72006354 0.71993334
+ 0.69993882 0.70006488 0.69993676 0.70240888 0.63993845 0.63993798
+ 0.63006507 0.62993903 0.64005993 0.639936   0.61800953 0.62006043
+ 0.61993347 0.62006251 0.43006031 0.43006185 0.45993916 0.33823185
+ 0.33993729 0.31006261 0.31006507 0.71993713 0.71993455 0.66471896
+ 0.66006118 0.61886389 0.61993729 0.62203637 0.62579528 0.61993397
+ 0.61993844 0.60613964 0.57993523 0.73692131 0.7399368  0.72092877
+ 0.72006359 0.71993724 0.7184755  0.620066   0.61243719 0.62087616
+ 0.59006612 0.52678366 0.529937   0.70895051 0.70006695 0.6000627
+ 0.58837089 0.60993628 0.61006309 0.54300744 0.52511561 0.52006597
+ 0.52006391 0.50993792 0.5100661  0.70994121 0.71006303 0.55006068
+ 0.54993697 0.63006588 0.62993803 0.60728083 0.6000605  0.47119477
+ 0.45993578 0.734117   0.72804496 0.70828642 0.71006521 0.6643847
+ 0.67006265 0.58993494 0.59006442 0.10187658 0.10006334 0.62994046
+ 0.72993421 0.46274431 0.61993507 0.72600482 0.61006665 0.50993565
+ 0.60355476 0.46006186]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.9952</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>26.4947</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>3.1465</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>4.0124</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>4.0127</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>C=439.38, gamma=367.05, epsilo=0.0390, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>[0.71961073 0.71961009 0.72960863 0.72960541 0.72039223 0.72038926
+ 0.70039036 0.70039218 0.69960827 0.70038768 0.63961123 0.64039297
+ 0.63039397 0.62961018 0.6403898  0.63960793 0.61960533 0.62038733
+ 0.61960948 0.62038933 0.43038918 0.43038901 0.45961134 0.33960641
+ 0.33960823 0.31039261 0.31039238 0.71960749 0.71961061 0.66038923
+ 0.66038979 0.61960675 0.61816835 0.62421912 0.62380401 0.61961487
+ 0.61960725 0.60105117 0.57960554 0.73960904 0.73961174 0.72039084
+ 0.72039213 0.71960946 0.71866137 0.61981576 0.61386791 0.61989044
+ 0.59039272 0.52763378 0.52669651 0.71170785 0.70038905 0.60039271
+ 0.58909101 0.60961158 0.61039216 0.54046579 0.52407529 0.52039236
+ 0.51961033 0.50961062 0.51039139 0.71039244 0.71038968 0.55039526
+ 0.5496081  0.63039248 0.62961048 0.60039131 0.60039109 0.4674878
+ 0.45960714 0.73308492 0.72960816 0.70960861 0.71039479 0.66790027
+ 0.6703961  0.58960789 0.59039242 0.10038627 0.1003909  0.62960925
+ 0.72961278 0.46040208 0.6203921  0.72419827 0.61081807 0.50961055
+ 0.60430773 0.46038832]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.9961</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>57.0697</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2.9128</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>3.8204</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>3.8207</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>C=288.14, gamma=600.07, epsilo=0.0239, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>[0.71976022 0.71976242 0.72976187 0.72975627 0.72024052 0.7198309
+ 0.69976302 0.70023573 0.69975932 0.70024118 0.6397568  0.64023937
+ 0.630238   0.6297566  0.64024083 0.63975784 0.61975853 0.62024073
+ 0.61976082 0.62023963 0.43024049 0.42975818 0.46024365 0.33976112
+ 0.33975706 0.31023911 0.3102397  0.72016488 0.71975762 0.66023874
+ 0.66024125 0.61976216 0.61976304 0.62023512 0.62023918 0.619758
+ 0.61976244 0.59540334 0.57975809 0.73975953 0.73976082 0.72024227
+ 0.72023863 0.71975709 0.71975805 0.62024158 0.61852752 0.59990717
+ 0.59023833 0.52975927 0.52975976 0.70714138 0.7002383  0.60024096
+ 0.59592245 0.60975697 0.6102373  0.54024418 0.53975655 0.52023962
+ 0.52024185 0.50975816 0.51023783 0.70976405 0.71024438 0.55024044
+ 0.5497562  0.6302436  0.62976187 0.60024074 0.59976073 0.46023983
+ 0.45975927 0.73262245 0.72975946 0.70975719 0.70976043 0.66976051
+ 0.67023892 0.58976257 0.58976138 0.10023887 0.10023572 0.62975762
+ 0.7297592  0.46024085 0.61985427 0.72512011 0.61023996 0.5097594
+ 0.60023868 0.46023743]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.9947</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.9973</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>19.0703</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2.9884</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>3.7259</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>3.7259</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>C=321.67, gamma=305.38, epsilo=0.0292, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>[0.71970717 0.71970665 0.72970946 0.72970504 0.72029228 0.72029261
+ 0.70029445 0.70029017 0.69970759 0.70718369 0.63971019 0.64029491
+ 0.63029584 0.62970804 0.64029328 0.63717662 0.61884313 0.62029296
+ 0.6197089  0.62029567 0.4298187  0.4302918  0.45970915 0.33614527
+ 0.33970574 0.31029148 0.31029312 0.71770723 0.7197089  0.66038168
+ 0.6597058  0.61970569 0.61530779 0.62347336 0.62604099 0.61331382
+ 0.6197034  0.60137501 0.57970373 0.73970591 0.73970704 0.72029115
+ 0.72029639 0.71970836 0.71803745 0.61970409 0.61140494 0.62877151
+ 0.5915362  0.52837384 0.52970884 0.71142779 0.70028924 0.60185512
+ 0.58708291 0.60970452 0.61029309 0.55528834 0.51818852 0.52029115
+ 0.51970778 0.50970864 0.50970786 0.71029457 0.71564495 0.55029602
+ 0.54970658 0.63029221 0.62970782 0.61024548 0.6006538  0.47764882
+ 0.45970708 0.73213579 0.72862431 0.70926156 0.71029101 0.6596364
+ 0.67029493 0.58621944 0.59029374 0.10029077 0.10028895 0.62970721
+ 0.72970989 0.46321628 0.62041182 0.72391344 0.61144163 0.50659763
+ 0.60984781 0.46029162]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.9770</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.9851</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>8.1915</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2.1257</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2.4927</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2.4927</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>C=39.520, gamma=78.476, epsilo=0.0037, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>[0.72994403 0.7069791  0.73070417 0.72410888 0.72003914 0.72658748
+ 0.70871803 0.69615203 0.703522   0.71483064 0.6403591  0.64064104
+ 0.63003758 0.63356515 0.64761851 0.63326636 0.63155459 0.6157945
+ 0.61307361 0.63643516 0.45149654 0.4562651  0.46003565 0.3462127
+ 0.37553735 0.328808   0.31102046 0.70876788 0.70259944 0.64490437
+ 0.66358419 0.62003468 0.61419914 0.62625756 0.63578734 0.60140443
+ 0.639068   0.61500345 0.57272561 0.73288195 0.72822501 0.72009117
+ 0.72425107 0.71655117 0.72363826 0.62193874 0.60571966 0.62005481
+ 0.60146217 0.5456802  0.55706576 0.71785386 0.71607866 0.60380062
+ 0.58711159 0.61003723 0.60356343 0.59009485 0.5210327  0.5422673
+ 0.50720163 0.51386938 0.5099615  0.69998565 0.71770654 0.54822864
+ 0.54400797 0.61910585 0.60007494 0.63845773 0.6221464  0.4676794
+ 0.45626903 0.72923372 0.73004205 0.70323987 0.70777197 0.66364396
+ 0.6748958  0.55423837 0.58862855 0.10003705 0.10003692 0.62995915
+ 0.72725516 0.42580036 0.62779395 0.71900135 0.60694257 0.50176509
+ 0.63553669 0.4809051 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.9942</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>13.0772</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2.2423</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.6802</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.6804</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>C=27.886, gamma=444.32, epsilo=0.0766, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>[0.71923393 0.71103568 0.72923557 0.72923355 0.72077044 0.71923197
+ 0.69923163 0.70076431 0.70076489 0.71448591 0.63923347 0.64076767
+ 0.63076675 0.62923329 0.63987454 0.62984063 0.61923254 0.61923196
+ 0.61923344 0.62128724 0.43076472 0.46012888 0.46077193 0.33288019
+ 0.3392323  0.31573774 0.30923357 0.71923391 0.71149753 0.66177095
+ 0.66020892 0.61520288 0.61725976 0.62007301 0.62891782 0.5980188
+ 0.62076403 0.60988363 0.57770756 0.73081979 0.73987278 0.72076601
+ 0.73276076 0.72076584 0.7192349  0.6202638  0.6073316  0.62743099
+ 0.60017755 0.52512977 0.53370757 0.70945457 0.70177155 0.60851217
+ 0.59110865 0.60718057 0.61133372 0.56340741 0.51853846 0.52461164
+ 0.52076521 0.50782792 0.51076847 0.70453706 0.71636993 0.55076629
+ 0.55076505 0.63076386 0.62289878 0.62612475 0.60627775 0.48022236
+ 0.45266767 0.73481256 0.72922911 0.70754337 0.71076642 0.65640467
+ 0.67076605 0.58064613 0.59076863 0.10881649 0.10077004 0.62986899
+ 0.71672308 0.46443404 0.62076833 0.72391552 0.61070876 0.50408936
+ 0.61651143 0.46478266]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.9931</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.9972</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>18.8750</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2.3925</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>3.6688</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>3.6695</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>C=19.647, gamma=1085.2, epsilo=0.0063, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>[0.71993255 0.71930782 0.72993963 0.72993535 0.72006288 0.71993494
+ 0.69993482 0.70006091 0.69942898 0.70637869 0.63993954 0.63993601
+ 0.63006462 0.62993568 0.64006146 0.63993416 0.61692927 0.62006218
+ 0.61993357 0.62006187 0.43006359 0.43006102 0.46006423 0.33558261
+ 0.33993586 0.31006395 0.30993654 0.71993592 0.71993812 0.66127105
+ 0.66021234 0.61697102 0.61993559 0.62006621 0.62830758 0.61719877
+ 0.61993536 0.61230643 0.57709401 0.72984434 0.7399349  0.72006287
+ 0.72006334 0.71993607 0.71942671 0.62006452 0.61078825 0.61675433
+ 0.59005975 0.5265064  0.5300627  0.70797147 0.70006637 0.60006324
+ 0.58981207 0.60993742 0.61006457 0.54343104 0.52771494 0.52006543
+ 0.5200655  0.50993327 0.51006566 0.70864747 0.71013752 0.55006121
+ 0.54993744 0.63006273 0.62993902 0.61314692 0.6000656  0.47604834
+ 0.45993609 0.73376009 0.72578573 0.70841314 0.70993996 0.66241868
+ 0.67005914 0.58993684 0.59006047 0.13084477 0.100058   0.62993998
+ 0.72993602 0.46422643 0.61993432 0.72944887 0.60998746 0.50993297
+ 0.60336263 0.46006302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.9925</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>11.5750</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>3.0531</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4.8913</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>4.8918</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>C=319.57, gamma=130.28, epsilo=0.0020, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>[0.72001927 0.71347625 0.72997972 0.73001442 0.72002329 0.72001939
+ 0.70072945 0.69998161 0.70398072 0.71989851 0.62912426 0.65030346
+ 0.63001945 0.62998035 0.63930777 0.6306947  0.6263763  0.62001602
+ 0.61998148 0.62999459 0.44504944 0.44062046 0.46002005 0.32580121
+ 0.34002284 0.32383499 0.31002016 0.71997746 0.71229007 0.6534945
+ 0.65966985 0.61689934 0.61499466 0.62073562 0.62830634 0.5972159
+ 0.6215049  0.60816287 0.57648686 0.73225579 0.73997866 0.72353337
+ 0.7233753  0.72223977 0.71917901 0.61978506 0.61289349 0.63175094
+ 0.59970202 0.52248784 0.53477849 0.71199525 0.70699116 0.60854913
+ 0.58475098 0.60998076 0.60928785 0.55911955 0.51169204 0.52629003
+ 0.52001609 0.51768202 0.50998048 0.7045157  0.72163393 0.5530613
+ 0.55001498 0.62997996 0.61061516 0.62823274 0.60205664 0.49595565
+ 0.45665814 0.73526163 0.7315589  0.70986025 0.70782042 0.65167617
+ 0.67002134 0.57035475 0.59115046 0.10002283 0.10002235 0.63435429
+ 0.72575258 0.46002402 0.61997898 0.72106331 0.61117934 0.50439647
+ 0.61713928 0.46001495]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1.1042</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2.4087</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>3.5017</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>3.5011</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>C=48.407, gamma=0.0157, epsilo=0.0245, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>[0.6171638  0.6244501  0.61537161 0.61389894 0.60169949 0.61049813
+ 0.60795825 0.59992955 0.61512554 0.61683485 0.61190693 0.59939253
+ 0.59914555 0.5991994  0.60940281 0.60343345 0.60868489 0.60984809
+ 0.60406688 0.612702   0.60847988 0.61283521 0.59530223 0.59036501
+ 0.59435293 0.5828782  0.58139226 0.63140322 0.63553871 0.62375813
+ 0.63018349 0.62660562 0.62753939 0.62707561 0.62730094 0.6241574
+ 0.62795624 0.62581193 0.61894823 0.63299208 0.63929707 0.63393254
+ 0.63035277 0.63378843 0.6368524  0.63052095 0.6302701  0.62167884
+ 0.62550308 0.61789295 0.61851435 0.63101692 0.63195137 0.62321857
+ 0.62236874 0.63442379 0.6312682  0.61751259 0.61092883 0.61646338
+ 0.61055346 0.60875422 0.60480354 0.63169349 0.63521195 0.60623792
+ 0.6105566  0.62754159 0.6241118  0.6275008  0.62688852 0.60907828
+ 0.6075747  0.63250063 0.63282123 0.62874484 0.62932178 0.63292558
+ 0.63416687 0.61778755 0.61938208 0.54114308 0.53992435 0.60037196
+ 0.60747825 0.59224052 0.62630958 0.63501223 0.63216619 0.61255452
+ 0.62894396 0.60871131]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.9261</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>3.6783</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2.4383</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3.6281</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>3.6285</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>C=160.01, gamma=0.3230, epsilo=0.0002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>[0.70708184 0.69614686 0.71635237 0.70705515 0.69511477 0.71726025
+ 0.68850349 0.67412904 0.69063065 0.70511651 0.65229606 0.61495115
+ 0.60475279 0.60545698 0.6443707  0.62168755 0.62812755 0.62301771
+ 0.60534346 0.64495947 0.51773914 0.53167247 0.45354246 0.45093662
+ 0.45859184 0.37404025 0.37948533 0.70552264 0.69216149 0.6369097
+ 0.65302597 0.61950898 0.61187412 0.63601543 0.64182517 0.62117439
+ 0.64823855 0.63171496 0.60587998 0.72992725 0.74564462 0.72811981
+ 0.72717821 0.7116614  0.72365117 0.62328723 0.61030768 0.63136319
+ 0.61310509 0.57750669 0.58818026 0.70902258 0.69828723 0.6175121
+ 0.60330502 0.62536283 0.61134998 0.61046797 0.5565427  0.56882574
+ 0.52602364 0.50748752 0.48522321 0.67568067 0.69462814 0.54911024
+ 0.56278949 0.58943149 0.58093383 0.63705073 0.62797406 0.50530338
+ 0.48844796 0.69910224 0.7003806  0.68116994 0.68781017 0.65516711
+ 0.66966772 0.54210585 0.56717639 0.09367238 0.10106461 0.60253038
+ 0.70595865 0.44472761 0.62541368 0.72457271 0.61457137 0.51019543
+ 0.6370851  0.51800636]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-0.0300</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-0.0214</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.9895</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2.1762</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.5912</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2.5913</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>C=0.0024, gamma=0.4919, epsilo=4.2974, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>[0.62000184 0.6200137  0.61999861 0.61999627 0.61997583 0.61999044
+ 0.61998654 0.61997312 0.61999857 0.6200014  0.61999325 0.61997252
+ 0.61997201 0.61997209 0.61998896 0.61997901 0.61998784 0.6199897
+ 0.6199804  0.61999475 0.61998776 0.61999494 0.61996633 0.6199577
+ 0.61996426 0.61994619 0.61994372 0.6200255  0.62003201 0.62001297
+ 0.62002317 0.62001732 0.6200188  0.62001848 0.62001877 0.62001393
+ 0.62001967 0.62001646 0.62000534 0.62002774 0.62003808 0.62002926
+ 0.62002367 0.62002924 0.62003415 0.62002408 0.62002361 0.6200096
+ 0.62001582 0.62000392 0.62000488 0.62002473 0.6200264  0.62001219
+ 0.62001094 0.62002984 0.62002485 0.62000307 0.6199922  0.62000104
+ 0.61999169 0.61998913 0.61998257 0.62002624 0.62003183 0.61998424
+ 0.61999143 0.62001974 0.62001426 0.62001922 0.62001826 0.61998934
+ 0.61998709 0.62002727 0.62002778 0.62002103 0.62002209 0.62002775
+ 0.62002973 0.6200039  0.62000653 0.61988268 0.61988098 0.61997413
+ 0.61998536 0.61996114 0.62001686 0.62003119 0.62002631 0.61999542
+ 0.62002159 0.61998871]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-0.0289</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-0.0203</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.9900</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2.2875</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2.6998</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2.7000</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>C=0.2430, gamma=0.0207, epsilo=1.7839, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>[0.62000557 0.62005729 0.61999163 0.61998156 0.61989323 0.61995634
+ 0.61993965 0.6198817  0.6199915  0.62000367 0.61996883 0.61987957
+ 0.61987736 0.61987768 0.61995037 0.61990753 0.61994561 0.61995368
+ 0.61991367 0.61997533 0.61994584 0.61997681 0.61985376 0.61981573
+ 0.61984439 0.61976679 0.61975586 0.62010907 0.62013839 0.62005444
+ 0.62009946 0.62007394 0.62008058 0.62007865 0.62007991 0.62005867
+ 0.62008389 0.62006978 0.6200213  0.62011887 0.62016519 0.62012564
+ 0.62010078 0.62012572 0.6201477  0.62010364 0.62010172 0.62003973
+ 0.62006719 0.62001525 0.62001938 0.62010561 0.62011314 0.62005117
+ 0.62004577 0.62012981 0.62010752 0.62001139 0.61996471 0.62000298
+ 0.61996265 0.61995171 0.61992358 0.62011263 0.62013752 0.61993052
+ 0.61996138 0.62008461 0.62006044 0.62008189 0.62007772 0.61995264
+ 0.61994303 0.620117   0.62011932 0.62008952 0.62009411 0.62011977
+ 0.62012852 0.62001546 0.62002674 0.61948077 0.61947228 0.61988657
+ 0.61993442 0.61983123 0.62007181 0.62013427 0.62011399 0.61997885
+ 0.62009237 0.61994986]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.9933</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>12.2620</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2.6475</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>5.1972</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>5.1968</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>C=174.19, gamma=196.05, epsilo=1.6469, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>[0.72000096 0.71263342 0.72999919 0.73000146 0.72000161 0.71999763
+ 0.70000191 0.69999904 0.70000081 0.7172986  0.63432301 0.64794317
+ 0.6300024  0.62839293 0.63904346 0.63052222 0.62169575 0.6199996
+ 0.62000021 0.62544878 0.43914665 0.43401031 0.4600017  0.32654808
+ 0.33999559 0.32002478 0.30999833 0.71999782 0.71028995 0.66000279
+ 0.65951546 0.61672327 0.61651302 0.61999869 0.62727273 0.59538782
+ 0.62000131 0.6072587  0.5764547  0.73120717 0.74000397 0.71999882
+ 0.72699203 0.72000195 0.71933325 0.61839143 0.60966061 0.63147039
+ 0.60124159 0.5227866  0.53327877 0.7108424  0.7048595  0.60902656
+ 0.58726325 0.60655322 0.61000419 0.56487225 0.5113191  0.52122517
+ 0.51999912 0.50999812 0.50999645 0.70667357 0.7177079  0.55244847
+ 0.54999963 0.62999921 0.61671968 0.62845254 0.60185925 0.48896355
+ 0.45087113 0.7359995  0.7299989  0.70897381 0.71000076 0.65132979
+ 0.67000225 0.57151125 0.59000188 0.10000288 0.09999897 0.63125522
+ 0.72439335 0.46251311 0.62000418 0.72179853 0.6109372  0.50148919
+ 0.6171713  0.4599975 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.9918</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12.3784</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2.7096</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>5.5823</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>5.5832</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>C=196.88, gamma=195.21, epsilo=6.8094, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>[0.72000321 0.71273335 0.72999987 0.73000342 0.71999985 0.71999722
+ 0.69999922 0.69999569 0.7000012  0.71769858 0.63437117 0.64741309
+ 0.63000151 0.62905826 0.63894128 0.63066665 0.62089033 0.61999902
+ 0.61999946 0.62430859 0.43822306 0.43211006 0.46000091 0.32634067
+ 0.33999821 0.31986796 0.30999813 0.71999805 0.71093904 0.66000054
+ 0.65949057 0.61700033 0.61679847 0.6200008  0.62690976 0.5960165
+ 0.61999959 0.6064486  0.5766365  0.73174493 0.74000475 0.71999869
+ 0.7263036  0.7200026  0.7194882  0.61868683 0.60996645 0.63219772
+ 0.60050978 0.52275224 0.5327707  0.71124316 0.7048281  0.60929597
+ 0.58731145 0.60692702 0.60999889 0.56550297 0.51163136 0.52091229
+ 0.51999807 0.51000339 0.51000205 0.70724651 0.71771242 0.55263286
+ 0.55000149 0.63000183 0.61691759 0.62754555 0.60118688 0.48928241
+ 0.45118035 0.7356184  0.72999965 0.70901463 0.70999651 0.65159854
+ 0.66999969 0.57158072 0.59000354 0.10000387 0.10000131 0.63117373
+ 0.72538412 0.4638514  0.61999892 0.72185981 0.61112088 0.50170854
+ 0.61672807 0.4600004 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.9919</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.9936</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>12.4593</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2.7588</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>5.7117</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>5.7115</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>C=197.24, gamma=198.77, epsilo=3.4142, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>[0.7199999  0.71273219 0.72999782 0.73000045 0.72000179 0.71999615
+ 0.69999942 0.69999932 0.69999864 0.71775906 0.63486524 0.64696655
+ 0.6300022  0.62924312 0.63903905 0.63082008 0.62041473 0.61999982
+ 0.61999768 0.62390868 0.43780045 0.43178768 0.4599974  0.32640943
+ 0.33999733 0.31972563 0.3100025  0.72000073 0.71111018 0.65999887
+ 0.65949155 0.61699944 0.61687783 0.62000192 0.6267675  0.59646144
+ 0.61999997 0.60614709 0.57678989 0.73195747 0.74000272 0.71999876
+ 0.7261483  0.72000318 0.71957577 0.6187454  0.61002625 0.63244571
+ 0.60019345 0.52278746 0.532545   0.71141564 0.70475015 0.60937851
+ 0.58738419 0.60712046 0.6099958  0.56588939 0.51173207 0.52080584
+ 0.51999916 0.51000237 0.51000035 0.7074637  0.7176479  0.55275125
+ 0.55000167 0.63000127 0.61713227 0.62719981 0.60107791 0.48897753
+ 0.45131524 0.73545878 0.7300017  0.70908768 0.71000007 0.65176533
+ 0.66999922 0.57188218 0.59000351 0.10000068 0.09999874 0.63101612
+ 0.72570439 0.46397021 0.61999706 0.72191298 0.61116156 0.50159779
+ 0.61658056 0.46000037]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.9919</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>11.1319</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2.3079</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>3.1426</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>3.1430</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>C=189.15, gamma=174.65, epsilo=0.8301, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>[0.72830145 0.70993691 0.72448092 0.73830152 0.727894   0.72830098
+ 0.70503247 0.69802656 0.70307499 0.72581314 0.63433196 0.64247246
+ 0.62477816 0.62471837 0.64212077 0.62944784 0.62830008 0.62100576
+ 0.61169934 0.62829941 0.43830443 0.43829896 0.46688457 0.32711278
+ 0.34830189 0.32532762 0.31481993 0.71212613 0.71169727 0.65824967
+ 0.66553198 0.61992168 0.61290251 0.62387934 0.62964678 0.59593793
+ 0.61643602 0.60917076 0.57696122 0.73380716 0.73463142 0.72830503
+ 0.72829916 0.72215193 0.72574409 0.61754701 0.6106904  0.62865787
+ 0.59830425 0.52170113 0.5391283  0.71199855 0.70829795 0.60731534
+ 0.5846459  0.6175873  0.61595214 0.5723816  0.51771243 0.52830258
+ 0.51806005 0.50562104 0.51830603 0.70169511 0.71830289 0.55056825
+ 0.54635818 0.62383567 0.61279793 0.62011935 0.6058429  0.48882713
+ 0.45170097 0.72956623 0.73088965 0.70235809 0.70548242 0.65649937
+ 0.67006569 0.56560285 0.59324136 0.10830413 0.10659108 0.62943261
+ 0.72169831 0.46278331 0.62398752 0.72589542 0.61709114 0.50066152
+ 0.61339955 0.46830234]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.9824</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.9879</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>9.1056</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2.2900</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>3.1387</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.1386</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>C=27.590, gamma=157.98, epsilo=0.0011, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>[0.728833   0.70480527 0.7300123  0.72999275 0.72335124 0.72241075
+ 0.70513084 0.69998667 0.70239455 0.71505341 0.63993029 0.64388809
+ 0.62999063 0.63074066 0.64586365 0.63403093 0.62773911 0.61998726
+ 0.61418959 0.63629878 0.44977755 0.45452762 0.47505185 0.34001261
+ 0.3847916  0.32135191 0.31184957 0.7113846  0.70187376 0.65621073
+ 0.66169871 0.61862687 0.61546252 0.62524177 0.63641098 0.59891113
+ 0.63662307 0.61306844 0.5750002  0.73271086 0.72568814 0.72000802
+ 0.72767424 0.72000874 0.72004965 0.62215641 0.6052979  0.62557068
+ 0.59997712 0.53857659 0.54882273 0.7170654  0.71526072 0.60470247
+ 0.58986449 0.6100087  0.60788088 0.57903632 0.51278281 0.53930047
+ 0.51474778 0.51922113 0.5100086  0.70152402 0.71695456 0.54963171
+ 0.54596614 0.62998829 0.60286053 0.63399496 0.61795247 0.47249059
+ 0.45153308 0.73289776 0.73620481 0.70360143 0.70964707 0.66080979
+ 0.67215575 0.56524735 0.5924022  0.10300169 0.1000152  0.63308693
+ 0.71996295 0.44624624 0.62585296 0.72025903 0.60939216 0.50734871
+ 0.62910349 0.4716148 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.9934</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>12.3308</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2.7463</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>3.7254</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>3.7265</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>C=184.51, gamma=196.72, epsilo=4.1550, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>[0.72000327 0.71263554 0.73000077 0.73000207 0.72000343 0.71999828
+ 0.6999989  0.69999784 0.70000243 0.7174913  0.63450289 0.64757221
+ 0.63000054 0.6287516  0.63898785 0.63062968 0.62113559 0.61999836
+ 0.61999769 0.62481783 0.43860293 0.43293439 0.45999792 0.32644161
+ 0.33999677 0.31996845 0.31000078 0.71999683 0.71062493 0.6600029
+ 0.65950134 0.61690696 0.61672375 0.62000211 0.62707518 0.59568806
+ 0.62000057 0.60680656 0.57654476 0.73152385 0.74000124 0.71999963
+ 0.7266654  0.72000071 0.71942881 0.6185596  0.60982672 0.63182639
+ 0.60092827 0.52275615 0.53300623 0.71102052 0.70484387 0.60918901
+ 0.58731121 0.60667658 0.60999951 0.56534063 0.51148622 0.52100534
+ 0.51999809 0.51000338 0.51000121 0.70699585 0.71770803 0.55254577
+ 0.55000011 0.62999815 0.61683994 0.62799604 0.60152423 0.48900313
+ 0.45103599 0.73578443 0.72999952 0.70898422 0.70999782 0.6514706
+ 0.67000369 0.57159239 0.58999978 0.10000097 0.10000262 0.6311784
+ 0.72492362 0.46323376 0.61999789 0.72184066 0.61103422 0.50154538
+ 0.61694145 0.4599972 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>11.8432</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2.4858</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>3.4096</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3.4096</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>C=162.70, gamma=162.80, epsilo=1.3359, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>[0.72123315 0.71206279 0.73000204 0.73000199 0.71999848 0.72000176
+ 0.69999979 0.69999763 0.70247903 0.71760285 0.63243525 0.6491159
+ 0.62999695 0.62880563 0.63999893 0.63003354 0.62588023 0.6200023
+ 0.62000078 0.6314416  0.44481387 0.44222203 0.45999686 0.32781606
+ 0.3399951  0.32207947 0.31000124 0.7200011  0.70961809 0.65705383
+ 0.6594944  0.61568588 0.61451267 0.62000209 0.62905788 0.59690796
+ 0.62148665 0.60820005 0.57685391 0.73105635 0.74000045 0.72209336
+ 0.72749689 0.72317418 0.71857882 0.61845271 0.61074538 0.63069834
+ 0.6015856  0.52293556 0.53417501 0.71090097 0.7063974  0.60820701
+ 0.58704479 0.60825625 0.60908633 0.56024278 0.51079681 0.52599713
+ 0.52000234 0.5136706  0.51000367 0.704612   0.71976488 0.55284698
+ 0.54999971 0.62999883 0.61483585 0.62969178 0.60417913 0.4903948
+ 0.45285004 0.73575736 0.7325333  0.70897544 0.70884462 0.65204547
+ 0.67000208 0.57022743 0.59288039 0.1000047  0.10000128 0.63347265
+ 0.72449227 0.45999558 0.61999834 0.72172989 0.61049525 0.50135425
+ 0.6179175  0.46000091]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.9798</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>8.5486</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2.2859</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>3.1964</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>3.1967</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>C=18.646, gamma=140.88, epsilo=0.0048, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>[0.73172864 0.70286427 0.73087244 0.72779799 0.72022202 0.72371147
+ 0.70508043 0.69995555 0.70513738 0.7181193  0.64083445 0.64323357
+ 0.63083227 0.6330235  0.64609659 0.63440108 0.62865486 0.61655953
+ 0.61212586 0.63629609 0.44905975 0.4555329  0.47761438 0.34100293
+ 0.38568243 0.32787311 0.31047274 0.71017444 0.70123675 0.65530116
+ 0.66220657 0.61995288 0.61540401 0.62599595 0.63585848 0.60136635
+ 0.63861307 0.61437084 0.57544467 0.7327295  0.72626815 0.7200484
+ 0.72226241 0.71818622 0.72136933 0.62331482 0.60504744 0.62350893
+ 0.59822562 0.54586814 0.55458516 0.72034307 0.71853924 0.60122377
+ 0.58536154 0.61075797 0.60733544 0.58404056 0.51606836 0.54145496
+ 0.51103022 0.51562692 0.50995233 0.7019759  0.71770299 0.54762526
+ 0.54359206 0.62516625 0.60229152 0.63537077 0.62007341 0.47035664
+ 0.45467804 0.72994721 0.73209609 0.70149899 0.70930965 0.66217704
+ 0.67163773 0.56430805 0.59323594 0.1033073  0.10004871 0.63301577
+ 0.72009023 0.4417222  0.62698495 0.72141898 0.60914854 0.50567927
+ 0.63293841 0.47522665]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.9834</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.9884</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>9.3018</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2.1867</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>3.0971</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>3.0979</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>C=30.851, gamma=165.80, epsilo=0.1090, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>[0.72973104 0.70587215 0.73085417 0.72890947 0.72563532 0.72298767
+ 0.70448023 0.69890853 0.70506054 0.7163781  0.63860883 0.6437701
+ 0.62917367 0.63109367 0.64476856 0.63363087 0.62717916 0.61908017
+ 0.61416859 0.63417997 0.4491316  0.45537593 0.47392611 0.34070014
+ 0.38153733 0.32219638 0.31199149 0.7115675  0.70270178 0.65505697
+ 0.66231412 0.61805877 0.61517195 0.62574601 0.63652318 0.59760756
+ 0.63661701 0.61249995 0.57459438 0.73368556 0.72812676 0.72193535
+ 0.72838101 0.72109113 0.72044    0.62109421 0.60590833 0.62537388
+ 0.60100353 0.53593697 0.54779758 0.71504479 0.71191762 0.60473408
+ 0.58934413 0.60923747 0.60795295 0.5785167  0.51389513 0.538455
+ 0.51730973 0.51854872 0.51109025 0.70072779 0.71622293 0.54890994
+ 0.54636584 0.62891126 0.60343788 0.63371088 0.61733778 0.47530861
+ 0.45412978 0.73233856 0.73451547 0.70413204 0.7074948  0.65975729
+ 0.67167877 0.56400081 0.59239461 0.10338398 0.10016217 0.63309733
+ 0.72048153 0.44792926 0.62552876 0.72178809 0.60994581 0.50568081
+ 0.62923609 0.4714686 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>11.9083</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2.6127</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>3.5203</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>3.5199</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>C=192.04, gamma=158.44, epsilo=3.5863, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>[0.72000263 0.71260526 0.73000011 0.730004   0.7200025  0.72000307
+ 0.70000458 0.70000131 0.70223593 0.71819905 0.63122774 0.64955676
+ 0.63000063 0.62869581 0.63965738 0.62983751 0.62569173 0.62000134
+ 0.62000171 0.62977832 0.4439512  0.44093388 0.46000174 0.32719747
+ 0.34000241 0.32175881 0.31000179 0.71999845 0.70995734 0.6578993
+ 0.65944648 0.61617412 0.61477395 0.61999769 0.62844931 0.59722505
+ 0.6206989  0.60826342 0.57742883 0.73109943 0.73999991 0.72192656
+ 0.72708142 0.72270566 0.7187328  0.61907302 0.61122892 0.63136534
+ 0.600951   0.52282834 0.53430837 0.71119634 0.70607436 0.6081725
+ 0.58654735 0.60839577 0.60991901 0.5601895  0.5110062  0.52518337
+ 0.519999   0.51417324 0.51000181 0.70484633 0.71973753 0.55305825
+ 0.55000049 0.6299971  0.61500955 0.6289847  0.60311908 0.49132874
+ 0.45326054 0.7356643  0.73205754 0.70906764 0.70894148 0.65195962
+ 0.66999901 0.57023145 0.59255021 0.09999846 0.1000002  0.63331008
+ 0.72461951 0.46000025 0.61999871 0.72164972 0.61090937 0.50239213
+ 0.61744772 0.45999849]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.9877</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>9.0316</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2.5002</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>4.8512</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>4.8507</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>C=178.54, gamma=181.66, epsilo=3.8812, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>[0.73586248 0.69467392 0.73082706 0.72952719 0.72395986 0.71798829
+ 0.70522246 0.69374305 0.71242484 0.72797337 0.62761999 0.65353296
+ 0.62730156 0.62568506 0.63910207 0.62154124 0.62631985 0.62268484
+ 0.61487685 0.62904755 0.44906495 0.44845566 0.47526879 0.32509158
+ 0.33892439 0.32532551 0.31285756 0.72112871 0.70223148 0.66057594
+ 0.65807644 0.6140276  0.61139997 0.62626596 0.63406259 0.59199809
+ 0.62423608 0.61270343 0.57169189 0.73030711 0.74510166 0.72654118
+ 0.73471157 0.72315297 0.71900005 0.60906644 0.60262668 0.62994233
+ 0.60182811 0.52243774 0.53649146 0.71397909 0.70654232 0.6138787
+ 0.58601373 0.60277758 0.61273833 0.56560868 0.50576031 0.52385275
+ 0.51289516 0.51424821 0.49985815 0.70618035 0.72585967 0.55447117
+ 0.55232985 0.63234494 0.6124061  0.63841812 0.61459011 0.48761024
+ 0.44775676 0.73607747 0.73438084 0.71051919 0.71227853 0.64516636
+ 0.66300265 0.5697305  0.58796412 0.10735681 0.10141299 0.63220248
+ 0.71332849 0.46914228 0.61784423 0.72349319 0.61107779 0.49853963
+ 0.62522729 0.46000107]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.9914</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.9869</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>8.7213</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2.3078</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>17.4204</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>17.4208</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>C=199.60, gamma=196.37, epsilo=0.4915, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>[0.73679727 0.69412561 0.7294653  0.73608276 0.7247587  0.72289868
+ 0.70988427 0.70124479 0.70860428 0.73353368 0.63339815 0.65014089
+ 0.6275511  0.62756471 0.64132762 0.61759815 0.62808792 0.62006759
+ 0.60789518 0.63193824 0.44479043 0.46037602 0.46103786 0.32453936
+ 0.34128514 0.33006634 0.31668795 0.71634221 0.70524401 0.66236508
+ 0.66329932 0.61881111 0.61203291 0.62618344 0.63254683 0.588737
+ 0.61472619 0.61066936 0.57412542 0.73678948 0.74040537 0.73568972
+ 0.73703042 0.72323683 0.72059804 0.61224925 0.60374258 0.63277294
+ 0.59805348 0.52164599 0.53838853 0.71153462 0.70884727 0.61285932
+ 0.58130292 0.60972812 0.61947897 0.5731547  0.50748886 0.53342959
+ 0.51860174 0.50667711 0.51581792 0.70045434 0.72720049 0.55648421
+ 0.54853911 0.6278316  0.60555573 0.62967834 0.60895519 0.49023441
+ 0.4482798  0.73164292 0.72901142 0.70784061 0.71177017 0.64993828
+ 0.66808605 0.56699597 0.58590097 0.10878503 0.10246256 0.63128904
+ 0.70623701 0.4635298  0.62101937 0.7250251  0.61571761 0.49834633
+ 0.61818734 0.4627692 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SG_DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.9933</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.9874</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>8.9149</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>3.2236</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>32.6986</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>32.6983</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>C=497.79, gamma=199.58, epsilo=8.0588, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>[0.72924855 0.69437827 0.73306509 0.72701143 0.72264949 0.71629269
+ 0.70862628 0.69703507 0.71384303 0.73369202 0.63146858 0.65629844
+ 0.63089714 0.63167417 0.63660423 0.61561898 0.61578571 0.62549794
+ 0.60926039 0.62622317 0.4390645  0.44282382 0.44347972 0.32381271
+ 0.32581411 0.32479118 0.31139442 0.71700442 0.70768929 0.67372661
+ 0.65689595 0.61456862 0.60964389 0.62735048 0.63306768 0.59667049
+ 0.62019334 0.6082167  0.57420644 0.73609167 0.73947042 0.73281208
+ 0.73794344 0.72043606 0.71458275 0.61302795 0.59942392 0.63793022
+ 0.59674302 0.52045054 0.52950219 0.71597639 0.70614775 0.61419475
+ 0.58910385 0.59909947 0.61743026 0.56776986 0.50495868 0.52207072
+ 0.51445128 0.51309683 0.50623232 0.70817007 0.73265337 0.56507926
+ 0.55608413 0.63985377 0.61510879 0.62585554 0.61019446 0.49190892
+ 0.44666446 0.7321992  0.72851023 0.70908597 0.7189677  0.64774112
+ 0.67078821 0.56974879 0.58727105 0.10986774 0.10421446 0.63217041
+ 0.70844923 0.46625321 0.61825429 0.72557662 0.61290224 0.49591878
+ 0.61740715 0.46000213]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.9984</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>7.2852</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2.2691</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>24.7448</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>24.7448</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>C=285.40, gamma=188.26, epsilo=0.2196, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>[0.70385794 0.68798637 0.71864547 0.71211066 0.70664412 0.70041089
+ 0.6941819  0.70065303 0.67607199 0.70709095 0.61072897 0.63875319
+ 0.63387944 0.63461508 0.63582393 0.62973434 0.61602995 0.6162201
+ 0.61822149 0.60037449 0.44367048 0.4642149  0.48023998 0.34324625
+ 0.35735066 0.32806545 0.315447   0.71093285 0.70175172 0.6648114
+ 0.6758226  0.60736635 0.61161049 0.62077241 0.62584393 0.60719945
+ 0.6220645  0.60526899 0.59102229 0.72206996 0.73393244 0.74486034
+ 0.73510337 0.72409961 0.71374941 0.61959371 0.60732074 0.65412261
+ 0.61097933 0.51712198 0.53715516 0.70140445 0.6954992  0.60757277
+ 0.56747689 0.60449025 0.60854806 0.56760267 0.50266769 0.535793
+ 0.51161766 0.51079604 0.50388659 0.69367686 0.73102695 0.56598088
+ 0.57264275 0.6174045  0.60571236 0.60755831 0.600086   0.50442246
+ 0.47077975 0.74362872 0.73872464 0.72683401 0.71202372 0.67462962
+ 0.66120491 0.56090244 0.58692171 0.13192238 0.12553318 0.63440661
+ 0.70380479 0.47052697 0.61636412 0.72817947 0.60949686 0.50311389
+ 0.61079984 0.46219522]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.9987</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.9799</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>7.0532</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2.5698</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>28.1717</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>28.1716</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>C=479.11, gamma=169.58, epsilo=0.1343, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>[0.7076065  0.68476077 0.7201186  0.71443935 0.70546444 0.69826662
+ 0.69170225 0.69909722 0.67418015 0.70633473 0.61140427 0.63909371
+ 0.63436828 0.63487106 0.63596635 0.6291298  0.61456342 0.61564494
+ 0.61883203 0.60498078 0.44602872 0.46288138 0.48013032 0.34453635
+ 0.35849687 0.32901985 0.3168269  0.71006613 0.70243507 0.66451996
+ 0.67628965 0.60481879 0.61138404 0.61994199 0.62717173 0.60765602
+ 0.62263715 0.6031345  0.59161246 0.72183897 0.73309782 0.74508057
+ 0.73416686 0.7258429  0.71303816 0.61815008 0.60669142 0.65654879
+ 0.61084403 0.51979165 0.54026408 0.70243039 0.69447674 0.60827132
+ 0.5688171  0.60496381 0.60855095 0.57186096 0.50198185 0.53724169
+ 0.51204647 0.51068297 0.50072454 0.69459587 0.73488222 0.57195747
+ 0.57662954 0.62220265 0.60757515 0.60642341 0.59909722 0.50559365
+ 0.47246865 0.74153033 0.73495745 0.72525448 0.71054144 0.67615656
+ 0.66084802 0.56116358 0.58993447 0.13747498 0.13028906 0.63424291
+ 0.70337122 0.47038646 0.61589836 0.72741613 0.60952392 0.50378806
+ 0.60972602 0.46134536]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.9958</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>22.9110</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2.7388</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>41.2866</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>41.2865</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>C=98.082, gamma=198.87, epsilo=2.8590, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>[0.71999944 0.71999919 0.73000036 0.72999931 0.71999836 0.71999969
+ 0.69999633 0.69999624 0.69999712 0.69999625 0.63999752 0.63999729
+ 0.63000163 0.63000111 0.64000073 0.63999761 0.61999818 0.61999741
+ 0.61999959 0.62000399 0.42999968 0.43000009 0.46000514 0.34000005
+ 0.34000478 0.30999998 0.30999837 0.72000333 0.72000228 0.66000035
+ 0.66565027 0.61999878 0.62000185 0.61999966 0.6199994  0.61212139
+ 0.61999812 0.58888137 0.58189495 0.73417574 0.7400051  0.72000259
+ 0.72000264 0.7200006  0.72000403 0.62000166 0.61950569 0.62656657
+ 0.60432006 0.53000057 0.53000438 0.69999955 0.69999892 0.60000181
+ 0.59406235 0.60999854 0.61000044 0.54734911 0.52843053 0.52000003
+ 0.51999601 0.50999783 0.50999945 0.70996239 0.710001   0.55000164
+ 0.55033266 0.63000224 0.62999809 0.60043998 0.60000189 0.4843111
+ 0.45999699 0.73000285 0.73000047 0.71132038 0.70999694 0.66999915
+ 0.67000159 0.58287854 0.58999597 0.09999934 0.10000019 0.6309421
+ 0.73000001 0.46871836 0.62041318 0.72195175 0.60905716 0.50591648
+ 0.60558707 0.45999688]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.9963</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>26.6511</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>3.0208</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>17.5867</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>17.5869</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>C=306.53, gamma=197.78, epsilo=0.0385, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>[0.71961329 0.71961268 0.73038685 0.72961469 0.71961531 0.71961198
+ 0.69961321 0.70038606 0.69961588 0.7003849  0.63961643 0.63961503
+ 0.62966087 0.62961201 0.63961263 0.6396139  0.61961236 0.61961265
+ 0.6203881  0.62038878 0.43038372 0.43038501 0.4603867  0.34038605
+ 0.34038655 0.31038663 0.31038653 0.71961143 0.71961228 0.66038372
+ 0.66038607 0.619614   0.61961696 0.62038369 0.62038353 0.61961473
+ 0.62038638 0.58038612 0.58038667 0.73961437 0.73961342 0.72038604
+ 0.72038498 0.71961469 0.71961407 0.61961338 0.61961303 0.63453522
+ 0.59038308 0.53038476 0.53038753 0.70038672 0.69961418 0.60038433
+ 0.59961185 0.610388   0.60971234 0.54038576 0.53961314 0.52038607
+ 0.52002055 0.51038478 0.50961347 0.70961568 0.71038713 0.55038722
+ 0.55038629 0.62961357 0.62961115 0.60038313 0.60038705 0.46038914
+ 0.46038587 0.73038402 0.73038636 0.71038215 0.70961162 0.67038734
+ 0.66961637 0.58961224 0.58961217 0.10038639 0.10038922 0.63038891
+ 0.72961105 0.46412966 0.61961203 0.7204143  0.60961498 0.50961812
+ 0.60428595 0.46038765]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DT_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.9932</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>26.7238</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2.4760</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>26.3309</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>26.3315</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>C=224.61, gamma=186.37, epsilo=0.1122, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>[0.71887948 0.71887905 0.72960772 0.72887916 0.71887743 0.71887669
+ 0.69887509 0.70112293 0.69888215 0.70112541 0.63887961 0.63887859
+ 0.62976754 0.62973542 0.63887457 0.63887727 0.6188746  0.61887432
+ 0.62112637 0.62112472 0.4311246  0.43112368 0.46112339 0.3411221
+ 0.34112681 0.31111917 0.31112232 0.71887534 0.71887783 0.66112307
+ 0.66171875 0.6188745  0.6188735  0.62112258 0.62112528 0.61887934
+ 0.61964966 0.58112533 0.58112771 0.73873147 0.73887365 0.72112115
+ 0.72112347 0.71887466 0.71887728 0.61891744 0.61887706 0.63253754
+ 0.59552795 0.53112424 0.53105976 0.70112438 0.69887566 0.60112312
+ 0.59887565 0.61004644 0.60887518 0.5411255  0.53888081 0.52112344
+ 0.5194968  0.51112158 0.50887838 0.70887583 0.71111925 0.55112353
+ 0.55112322 0.62887294 0.62887344 0.60112064 0.60112263 0.46282109
+ 0.46112581 0.73112013 0.73112329 0.71112192 0.70887652 0.67112348
+ 0.66887743 0.58887562 0.58887583 0.10112195 0.10112048 0.63112689
+ 0.7288735  0.46558015 0.61940232 0.72112288 0.60887743 0.50887585
+ 0.60615823 0.46112302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SG_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.9987</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>27.4964</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2.8733</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>39.7848</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>39.7848</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>C=443.06, gamma=168.97, epsilo=0.3640, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>[0.7163615  0.71635737 0.72635732 0.72635819 0.71635953 0.71635902
+ 0.69635961 0.70363855 0.70329439 0.70364251 0.63635942 0.64364418
+ 0.62636276 0.62874464 0.63635701 0.63635724 0.61933199 0.62364097
+ 0.62364429 0.62364526 0.43364198 0.43364039 0.45635452 0.33636147
+ 0.34364178 0.30932788 0.30635987 0.71908479 0.71946136 0.66364092
+ 0.65635947 0.61635638 0.61636271 0.61740704 0.61636276 0.61334222
+ 0.61635821 0.58363972 0.56435322 0.73635728 0.73635794 0.71635763
+ 0.71635841 0.71635707 0.7236384  0.62411089 0.61635462 0.59363761
+ 0.59498054 0.52732425 0.52635984 0.70363649 0.70269691 0.59635951
+ 0.59635837 0.60687192 0.61364314 0.54363846 0.53635578 0.51635667
+ 0.52364224 0.50635753 0.51364257 0.71267034 0.71364209 0.55364029
+ 0.55364097 0.62635425 0.62635754 0.61090927 0.60364055 0.46364232
+ 0.45636    0.73363421 0.72635579 0.68839155 0.70743077 0.67363795
+ 0.67169415 0.58636182 0.59066071 0.10364453 0.10073259 0.63269128
+ 0.72636138 0.46364108 0.61635698 0.72504834 0.60767583 0.50837642
+ 0.60364008 0.45635908]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SG_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.9955</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>14.9689</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>3.5415</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>41.1140</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>41.1144</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>C=266.44, gamma=99.280, epsilo=0.0005, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>[0.71999675 0.71999758 0.72339897 0.7299899  0.71999419 0.71999768
+ 0.69999109 0.70000177 0.70000699 0.7033918  0.63999558 0.64000531
+ 0.62941766 0.63000471 0.63126217 0.63999618 0.61695761 0.62000339
+ 0.62618178 0.62000599 0.43000505 0.43783158 0.43715249 0.33998905
+ 0.3400075  0.30999848 0.30999434 0.71999327 0.72000493 0.66866273
+ 0.65537292 0.61999776 0.61769106 0.62000503 0.62000962 0.61100363
+ 0.59979183 0.58000628 0.55664506 0.73999305 0.71667647 0.71999533
+ 0.71296165 0.72357585 0.72012643 0.6220397  0.61999537 0.60079962
+ 0.60458695 0.52821158 0.52815531 0.7028447  0.69789047 0.60000425
+ 0.59229386 0.61000486 0.61689618 0.54000626 0.54089488 0.50504559
+ 0.52468355 0.50999477 0.51000723 0.7100099  0.71868171 0.54999485
+ 0.56064422 0.62812793 0.59802138 0.63271941 0.60835014 0.46221755
+ 0.44296143 0.73135865 0.71993797 0.69570432 0.70259076 0.67646381
+ 0.66999423 0.58626892 0.59035956 0.1000067  0.10000838 0.63000956
+ 0.72999714 0.46000488 0.61229823 0.72704241 0.60971356 0.50884396
+ 0.60711095 0.45999226]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SG_LASSO_SVR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.9953</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.9803</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>7.1289</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>3.6534</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>30.4731</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>30.4734</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>C=606.33, gamma=71.164, epsilo=0.0085, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>[0.67051882 0.72688786 0.71257598 0.72722161 0.7017296  0.70884099
+ 0.68496918 0.70414713 0.70767007 0.71166391 0.63883908 0.63067792
+ 0.62208186 0.62765786 0.62676387 0.63447849 0.61179154 0.62091878
+ 0.63104316 0.62632035 0.44296561 0.4526606  0.37800469 0.33006384
+ 0.34445082 0.31162273 0.29616408 0.70262447 0.7248218  0.67512872
+ 0.65336918 0.60372432 0.61346176 0.62193269 0.62157875 0.61140906
+ 0.56872287 0.58001561 0.55505282 0.73545603 0.70899018 0.7007064
+ 0.70315954 0.73014858 0.72943902 0.622808   0.62398144 0.60144777
+ 0.60728447 0.51131293 0.52353542 0.7028851  0.69673758 0.60531115
+ 0.58776612 0.61371227 0.61610927 0.57311776 0.5444805  0.49744041
+ 0.53470203 0.51098091 0.54574197 0.70051155 0.71572653 0.5480905
+ 0.56183135 0.62578793 0.5827105  0.63996033 0.61008159 0.46922617
+ 0.44141205 0.73693093 0.71468957 0.69156535 0.70022775 0.68428443
+ 0.67415823 0.58856975 0.59453307 0.10113521 0.09997565 0.63331587
+ 0.71393425 0.46253485 0.60921166 0.7239679  0.60943152 0.50995938
+ 0.60912558 0.45991392]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_svr_opt.xlsx
+++ b/nirs_water_prediction/result/tmp_svr_opt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:T155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11177,6 +11177,5579 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MSC_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.9462</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>4.2096</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2.3827</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>5.6828</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>5.6824</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>C=111.62, gamma=81.641, epsilo=0.9607, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>[0.71691047 0.65720656 0.71005127 0.70555839 0.72845443 0.73462844
+ 0.69397432 0.69128414 0.66560378 0.65767272 0.64688567 0.62711359
+ 0.64778539 0.65548435 0.64335636 0.61795558 0.63010504 0.60371174
+ 0.61836271 0.61938914 0.44030276 0.46598818 0.38397856 0.34998469
+ 0.34860244 0.33388359 0.32364111 0.67338112 0.70050419 0.64758983
+ 0.65674393 0.596563   0.55297439 0.62856587 0.6080346  0.61828204
+ 0.59726796 0.59560062 0.576879   0.69227044 0.72987673 0.67405013
+ 0.66953941 0.73288623 0.70690446 0.62552452 0.63182614 0.64500113
+ 0.61293632 0.51714378 0.55766627 0.6788597  0.66690163 0.6025238
+ 0.57320403 0.58215991 0.57781466 0.55632678 0.52514653 0.53073282
+ 0.52675023 0.49156388 0.48298707 0.64498922 0.67215338 0.55043719
+ 0.5610724  0.5799708  0.55811667 0.62788304 0.57596199 0.47858356
+ 0.43566788 0.67050925 0.66198164 0.67559575 0.67891764 0.64531744
+ 0.65038285 0.55640607 0.57784371 0.11411654 0.11133618 0.63741757
+ 0.7164345  0.38417845 0.60758473 0.69296422 0.59006692 0.49493604
+ 0.60498669 0.47446177]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SNV_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.9830</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.8926</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>3.0517</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>4.4346</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>4.4351</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>C=609.50, gamma=72.573, epsilo=0.0346, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>[0.60316064 0.67969836 0.6333185  0.65548388 0.64627424 0.65764592
+ 0.69071218 0.69051672 0.68566042 0.68198587 0.61310073 0.63334768
+ 0.62889974 0.6184642  0.63583157 0.62318266 0.62311222 0.63332725
+ 0.61623931 0.61528956 0.43034396 0.4303475  0.46035083 0.34034942
+ 0.34034941 0.31034645 0.31034708 0.71965451 0.71965188 0.65965285
+ 0.66034463 0.62034816 0.61965723 0.62034567 0.61965093 0.62034236
+ 0.6196502  0.58034613 0.57965178 0.7396486  0.74034208 0.71965643
+ 0.71965146 0.71965273 0.71964973 0.61964951 0.61965089 0.59034364
+ 0.59034782 0.53034638 0.53034981 0.7003488  0.69965112 0.60034587
+ 0.59965167 0.6075081  0.60854859 0.57332628 0.53476721 0.51684695
+ 0.51580412 0.53511503 0.56353644 0.67843108 0.66515787 0.55373082
+ 0.56133725 0.59293458 0.59922085 0.61318747 0.58734358 0.50419458
+ 0.50803881 0.6981229  0.70767103 0.70396827 0.68527706 0.6594209
+ 0.65459971 0.58830822 0.59174559 0.33430012 0.28934468 0.6364023
+ 0.66338978 0.46072989 0.64603121 0.72951413 0.61143823 0.50140918
+ 0.60312066 0.46034738]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DWT_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>7.9420</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>1.3548</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>6.0023</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>6.0023</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>C=541.62, gamma=98.397, epsilo=0.2618, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>[0.70768958 0.71645942 0.70899428 0.72379583 0.74870448 0.71906963
+ 0.69463159 0.71610167 0.70813255 0.70421176 0.60467724 0.63694274
+ 0.64614933 0.64896836 0.63447979 0.64209759 0.61053631 0.62462497
+ 0.61141784 0.62304349 0.43262175 0.43261862 0.45737997 0.33738106
+ 0.34262124 0.31262053 0.30738213 0.72598055 0.72262111 0.66261651
+ 0.66262059 0.61738486 0.61738038 0.61827253 0.61738354 0.59439089
+ 0.60544301 0.58861878 0.56862485 0.73737749 0.735837   0.717256
+ 0.70461667 0.70892878 0.73739056 0.62261626 0.61738129 0.58499665
+ 0.61104298 0.53122141 0.52129305 0.69738377 0.69737895 0.61323051
+ 0.60261755 0.61564205 0.61645748 0.6111671  0.53386151 0.49024463
+ 0.53571639 0.45335645 0.55584759 0.71289897 0.72041817 0.55909814
+ 0.56415258 0.63831238 0.62498259 0.63689772 0.62695255 0.46989199
+ 0.45395375 0.7334401  0.7291826  0.70792687 0.71766885 0.67550419
+ 0.68517552 0.59320261 0.60259909 0.10985777 0.09895524 0.6388944
+ 0.71471078 0.46226677 0.62486787 0.72946872 0.61452127 0.48255825
+ 0.611647   0.45738375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>D1_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-0.0268</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-0.0218</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.9893</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2.5797</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2.5798</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>C=0.0127, gamma=3.5686, epsilo=1.1348, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>[0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62
+ 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62
+ 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62
+ 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62
+ 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62
+ 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62
+ 0.62 0.62 0.62 0.62 0.62 0.62 0.62 0.62]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MA_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.9901</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.9780</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>6.7350</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2.6822</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>12.4582</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>12.4585</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>C=583.92, gamma=84.670, epsilo=6.4001, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>[0.73448437 0.71708446 0.69979192 0.68867667 0.74134795 0.70910924
+ 0.68800544 0.71223066 0.69517652 0.690436   0.60421255 0.61852455
+ 0.68879767 0.67714184 0.61962899 0.63789164 0.60673938 0.63515193
+ 0.61920459 0.61911956 0.4300044  0.432128   0.46000016 0.34000282
+ 0.34000025 0.31661307 0.3054928  0.72000068 0.71999826 0.65999915
+ 0.66290211 0.61141537 0.62000401 0.61822316 0.61999761 0.60728962
+ 0.59753905 0.58587223 0.56025523 0.7399967  0.73108362 0.71999681
+ 0.69968436 0.7148804  0.7351975  0.62423524 0.61999995 0.58999681
+ 0.61650782 0.52999923 0.51438417 0.69999851 0.69471556 0.60731393
+ 0.60263236 0.60982787 0.61523271 0.62140887 0.54629461 0.49402877
+ 0.53617039 0.46510032 0.55290767 0.71438871 0.71740028 0.54844771
+ 0.56485089 0.63565462 0.61211162 0.64453058 0.61890776 0.47714769
+ 0.45218615 0.73520722 0.72817349 0.68815238 0.71288728 0.68192275
+ 0.68683753 0.58367118 0.59687413 0.10150954 0.10086275 0.6499655
+ 0.73329341 0.46329905 0.61674531 0.72545123 0.61242317 0.49269165
+ 0.60842904 0.46000229]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.8871</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.8887</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2.9980</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2.9004</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2.9002</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>C=655.97, gamma=91.030, epsilo=5.7272, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>[0.73833453 0.67631788 0.70591242 0.77339755 0.69618215 0.68878511
+ 0.71665443 0.64445599 0.66406626 0.63182254 0.7091228  0.6317926
+ 0.61896176 0.5547249  0.65515221 0.63736829 0.63188167 0.60134425
+ 0.60724244 0.68174155 0.50567762 0.50346286 0.36208804 0.2866113
+ 0.36480007 0.33954233 0.32045086 0.68875272 0.67898171 0.62820586
+ 0.62081205 0.65137086 0.60932549 0.56398409 0.61080066 0.5582501
+ 0.59988678 0.54954157 0.58367076 0.76238362 0.74620395 0.6762497
+ 0.7536205  0.69402216 0.69799305 0.59816415 0.63675053 0.63499717
+ 0.61875554 0.59801903 0.6547233  0.68925159 0.72423491 0.63074722
+ 0.61991576 0.58035107 0.60604567 0.61987237 0.47014265 0.55109939
+ 0.56115368 0.60129302 0.5281385  0.68572532 0.6651476  0.51881023
+ 0.59030609 0.63435766 0.60122246 0.70004485 0.60122672 0.49207863
+ 0.45710867 0.75021961 0.71055543 0.70269575 0.70285667 0.68829892
+ 0.65667969 0.57189467 0.54095922 0.13269696 0.13113197 0.61150887
+ 0.69711363 0.37038056 0.61764501 0.7123882  0.60858119 0.54597806
+ 0.64044848 0.46797321]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SG_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.9872</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.9807</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>7.2003</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0.8265</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>5.8414</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>5.8420</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>C=470.99, gamma=81.062, epsilo=0.5729, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>[0.73655782 0.721825   0.69715804 0.68748748 0.73426541 0.70943119
+ 0.68861951 0.71562906 0.69887476 0.69439575 0.61523413 0.62724692
+ 0.66346035 0.65614146 0.62774189 0.63845256 0.61787319 0.6353512
+ 0.61288067 0.6401799  0.43264439 0.43573063 0.45426613 0.33426743
+ 0.3453466  0.31573147 0.30426856 0.71426733 0.7257273  0.65632909
+ 0.65999489 0.6026158  0.61603302 0.62376863 0.62087891 0.60241352
+ 0.58424664 0.58805774 0.55702752 0.73807845 0.72192191 0.71427117
+ 0.6939715  0.71427063 0.73662495 0.63151229 0.61427247 0.59573103
+ 0.61632895 0.53252645 0.51598174 0.70122661 0.69998744 0.60416314
+ 0.59763539 0.61015027 0.61275033 0.62169991 0.53518282 0.49506419
+ 0.53789747 0.46889541 0.54668591 0.70679052 0.71995028 0.54940998
+ 0.56044489 0.62837918 0.60778214 0.63826476 0.611484   0.48448245
+ 0.46227627 0.73298704 0.72751533 0.69353514 0.71120957 0.67166622
+ 0.68399409 0.5802219  0.59781598 0.10984094 0.09534915 0.64432215
+ 0.71197359 0.45603966 0.61925054 0.72475493 0.61255207 0.49532997
+ 0.6087982  0.45427407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DT_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.9670</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>6.0455</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>4.3023</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>4.3018</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>C=603.99, gamma=91.900, epsilo=3.1822, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>[0.71080984 0.71707425 0.70670127 0.70581829 0.73684713 0.71590535
+ 0.70743772 0.69544635 0.70557963 0.70409424 0.6229451  0.62776875
+ 0.62954369 0.63001756 0.62980027 0.62353092 0.63147679 0.62817007
+ 0.622954   0.62551711 0.45459609 0.45664206 0.46548918 0.35609083
+ 0.36733869 0.34881744 0.30999844 0.70561614 0.6971327  0.62000102
+ 0.66695196 0.63052054 0.60745236 0.63476803 0.6342324  0.58166482
+ 0.66069282 0.59343644 0.58653429 0.73999888 0.73512846 0.71615364
+ 0.7143663  0.72795613 0.72175617 0.6243744  0.61849103 0.63033809
+ 0.62744608 0.49976824 0.55546113 0.70000354 0.70334918 0.60632117
+ 0.58966758 0.61538043 0.60121568 0.58240097 0.5169343  0.56404932
+ 0.54180101 0.54906121 0.56311678 0.69778523 0.72370071 0.5445932
+ 0.55795839 0.60698626 0.57724786 0.65303958 0.61214415 0.49351785
+ 0.45420134 0.73892361 0.73078708 0.70285312 0.70403295 0.6623058
+ 0.67575424 0.54643663 0.57727738 0.09952533 0.10046745 0.6269098
+ 0.70769311 0.43796099 0.62333899 0.71650747 0.61061382 0.50557696
+ 0.6316991  0.47374186]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SG_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.9688</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>5.6659</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>3.2699</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>3.2703</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>C=27.885, gamma=21.035, epsilo=1.1733, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>[0.73665104 0.72047436 0.68059649 0.6809745  0.71294851 0.69039357
+ 0.70162028 0.71226169 0.68904792 0.68980222 0.64217046 0.64530025
+ 0.62781987 0.62329687 0.62751312 0.63592622 0.62173771 0.63215674
+ 0.61615024 0.64040177 0.48255018 0.49238647 0.43032127 0.33944595
+ 0.3386834  0.32514158 0.31866796 0.69891827 0.7340012  0.63707521
+ 0.66347478 0.62099471 0.61795505 0.61999897 0.62272406 0.60815607
+ 0.64948844 0.589934   0.55941288 0.73697648 0.7168274  0.71549383
+ 0.65936514 0.68179562 0.71609988 0.63376988 0.61836421 0.61575419
+ 0.60804613 0.54833623 0.5393918  0.70457893 0.70971253 0.60067736
+ 0.60291236 0.61342166 0.60901365 0.59596294 0.52515559 0.5215259
+ 0.49742615 0.50306392 0.52989499 0.70806043 0.73814183 0.54748533
+ 0.54895234 0.63579966 0.61681399 0.64744443 0.62478159 0.50046095
+ 0.48671863 0.70316189 0.72276701 0.69552071 0.6942652  0.66301294
+ 0.67615671 0.57163481 0.58562473 0.10848341 0.09853811 0.62632948
+ 0.68558289 0.40114741 0.62482542 0.71853204 0.61370847 0.50585618
+ 0.6373094  0.48214248]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SG_NEW_SVR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.9829</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.9790</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>6.8987</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0.5120</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>4.4330</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>4.4325</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>C=69.967, gamma=99.748, epsilo=0.0043, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>[0.75100901 0.71319589 0.68814466 0.68413369 0.71759552 0.70970166
+ 0.69069737 0.72245909 0.69412608 0.68879035 0.61539172 0.63755365
+ 0.65563744 0.65384311 0.62220586 0.63640845 0.60896102 0.63565511
+ 0.61082659 0.6379724  0.44038841 0.44395451 0.41988356 0.33995521
+ 0.3400437  0.30906226 0.29532773 0.7175862  0.72344466 0.66249216
+ 0.6615975  0.61097246 0.61960501 0.61995333 0.62004636 0.6106359
+ 0.59115834 0.5891418  0.55700593 0.73995817 0.7121554  0.7177676
+ 0.68241699 0.70518875 0.73011425 0.6246513  0.61114498 0.59004108
+ 0.61246479 0.5299568  0.51239658 0.7000467  0.69995771 0.60802339
+ 0.60121551 0.61515929 0.61504329 0.62361469 0.53871172 0.50196262
+ 0.52514852 0.49015209 0.51529448 0.71356724 0.71295742 0.55380494
+ 0.55949105 0.63645848 0.61814346 0.65461973 0.62619737 0.4855423
+ 0.46062611 0.7294876  0.73000163 0.68725323 0.71067078 0.66522031
+ 0.67734122 0.58236569 0.59813314 0.10190358 0.10108749 0.64282082
+ 0.7131719  0.45183889 0.61794732 0.72379961 0.61643514 0.50034766
+ 0.62350994 0.45995288]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.7286</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.7667</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>1.5576</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2.1840</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>3.0073</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>3.0076</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>C=5.2610, gamma=21.733, epsilo=0.0041, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>[3.61329361 3.51536784 3.47505424 3.62087338 3.62403098 3.52698863
+ 3.7092402  3.51502585 3.35083117 3.47514619 3.55296024 3.33678848
+ 3.35137648 3.41949834 3.34953379 3.5956947  3.36528909 3.42658534
+ 3.6068678  3.58424016 3.57327503 3.51528532 3.63450856 3.53686671]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.7575</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>1.5317</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2.6520</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>3.3521</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>3.3532</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>C=3.0800, gamma=34.100, epsilo=3.1929, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>[3.61476083 3.51395948 3.48883959 3.60618409 3.62367598 3.52620087
+ 3.70328414 3.51660547 3.35593736 3.46361243 3.54296564 3.34152246
+ 3.31665845 3.44173266 3.34155349 3.61526245 3.35057261 3.42907181
+ 3.62765485 3.58165221 3.56271882 3.51536835 3.62950967 3.53000428]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.6623</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1.3347</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2.4387</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>3.2597</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>3.2599</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>C=70.837, gamma=0.3927, epsilo=0.0111, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>[3.58122333 3.54785751 3.445461   3.65123305 3.67972377 3.53834714
+ 3.66627796 3.48378653 3.38522486 3.42927912 3.47560341 3.38354994
+ 3.41429511 3.43532697 3.35567526 3.53169016 3.41137479 3.413031
+ 3.74965383 3.59031957 3.61844729 3.51933543 3.69720625 3.54436888]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.7869</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.8345</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0.6965</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1.8151</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2.2000</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2.9056</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2.9063</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>C=558.87, gamma=0.7520, epsilo=1.3460, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>[3.61416973 3.60575482 3.4918252  3.67154623 3.60321108 3.55400515
+ 3.7211819  3.60317563 3.37350089 3.48835366 3.5997941  3.38622172
+ 3.32570201 3.37438423 3.35795535 3.52540687 3.41210604 3.43525802
+ 3.61805169 3.57120802 3.54584546 3.51885941 3.64821337 3.51597456]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.8079</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1.4640</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2.2490</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>3.0359</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>3.0370</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>C=64202., gamma=0.0032, epsilo=1.3177, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>[3.59146359 3.55059775 3.46166494 3.66467263 3.56898989 3.479948
+ 3.71905051 3.56273418 3.33251784 3.38449891 3.41971422 3.38276789
+ 3.33856599 3.4122014  3.36769217 3.52716832 3.39609121 3.40527607
+ 3.67326163 3.57636889 3.60295947 3.50866199 3.69916121 3.49414116]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1.3834</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2.1721</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2.9245</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2.9248</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>C=7329.1, gamma=0.0086, epsilo=1.2149, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>[3.59605239 3.56073524 3.45237604 3.66448023 3.64730767 3.50808326
+ 3.6807673  3.49797484 3.36602939 3.40434204 3.43947067 3.3701523
+ 3.38734408 3.42068181 3.36992853 3.53510956 3.39476285 3.40125901
+ 3.74315673 3.57671623 3.60519862 3.52635994 3.7023581  3.53405084]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1.6289</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2.2223</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>3.5784</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>3.5782</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>C=11309., gamma=0.2976, epsilo=0.0912, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>[3.6714473  3.59537171 3.51981805 3.69854028 3.59106231 3.54048312
+ 3.69190538 3.45595793 3.34721005 3.49455797 3.61916068 3.40524911
+ 3.27263169 3.41943884 3.4560776  3.53857619 3.39159304 3.38149222
+ 3.65352662 3.52145983 3.52770396 3.47813788 3.57028669 3.486541  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0.7648</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.6184</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1.2725</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>0.7735</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>C=2.4692, gamma=20.612, epsilo=0.0003, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>[3.52813334 3.48943112 3.39690942 3.60484315 3.58081714 3.49701739
+ 3.64002593 3.45861469 3.32634222 3.40174546 3.45765775 3.30710238
+ 3.33165303 3.41167594 3.35640508 3.50126211 3.37048539 3.38905005
+ 3.67001911 3.55079731 3.57052579 3.4809448  3.63812606 3.46242813]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1.5473</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>C=43.679, gamma=0.0531, epsilo=0.0874, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>[3.62240059 3.58282656 3.45015736 3.65177091 3.65389237 3.53198436
+ 3.67002417 3.50303789 3.37633078 3.44676226 3.524575   3.3980816
+ 3.40037467 3.40987433 3.38094843 3.49662669 3.37969326 3.40174735
+ 3.70572016 3.56673495 3.57061327 3.48444585 3.68953612 3.5066777 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.7868</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.4984</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1.6201</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>C=3273.3, gamma=0.0119, epsilo=0.0672, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>[3.60754412 3.54814644 3.46348207 3.65356991 3.69034066 3.52014902
+ 3.64512237 3.48695623 3.33328382 3.40349217 3.45363633 3.36915571
+ 3.34640886 3.41318091 3.38050187 3.52131592 3.3933516  3.35998222
+ 3.65975059 3.5208407  3.56043737 3.48143498 3.64880685 3.51846051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.8193</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.8282</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.6713</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>0.6859</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>1.7842</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>C=53477., gamma=9939.7, epsilo=0.0004, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>[3.63160758 3.59624823 3.41136195 3.62126981 3.60312055 3.51890976
+ 3.71164069 3.56455493 3.33580939 3.50540737 3.65577785 3.37849205
+ 3.35493013 3.35262578 3.31598168 3.55166152 3.37071689 3.44160775
+ 3.56325856 3.52728741 3.48976621 3.4710885  3.64345186 3.54266829]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MA_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.7705</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.5936</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>1.5619</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>C=356.47, gamma=0.2436, epsilo=0.1042, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>[3.67068878 3.6023541  3.50687956 3.69147829 3.60839458 3.54960308
+ 3.65916636 3.44460482 3.35253246 3.52547809 3.63120375 3.39498904
+ 3.31122429 3.41504926 3.44288071 3.54307289 3.43082595 3.38831102
+ 3.66681263 3.53300734 3.53744698 3.50149379 3.56237744 3.49621529]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.7762</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.7740</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1.5793</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>C=55758., gamma=0.0303, epsilo=2.1686, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>[3.59503384 3.52031994 3.41465348 3.64210576 3.63606757 3.49226103
+ 3.67575438 3.52539217 3.29936818 3.37625934 3.44703428 3.37195499
+ 3.3543088  3.45892265 3.39445995 3.56796183 3.324756   3.39236033
+ 3.61824894 3.52217336 3.53586807 3.47369572 3.69093643 3.49676048]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.7269</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1.4723</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>1.0580</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>1.0583</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>C=49209., gamma=0.0011, epsilo=0.0001, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>[3.61295881 3.54686808 3.48050305 3.70128814 3.6767098  3.50777703
+ 3.66694143 3.53241033 3.30847147 3.36885182 3.33923486 3.34636736
+ 3.36077416 3.41367883 3.40121133 3.54310497 3.41995849 3.36220693
+ 3.67229884 3.51449176 3.60200625 3.48772415 3.663259   3.52908678]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.6335</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>0.5675</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>C=13972., gamma=0.0053, epsilo=0.0769, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>[3.60900215 3.56790985 3.44343787 3.65564114 3.66635354 3.518273
+ 3.6885317  3.49852496 3.36573853 3.41044999 3.48398741 3.3834896
+ 3.39060815 3.41042325 3.35967993 3.51229246 3.36174082 3.39090119
+ 3.70683285 3.55207206 3.5612223  3.48580601 3.68090349 3.49950504]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.7751</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.7806</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.6008</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1.5998</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2.1974</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>4.4248</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>4.4253</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>C=166057, gamma=0.0006, epsilo=0.0012, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>[3.60828742 3.56726391 3.48879928 3.7069985  3.63359469 3.52278039
+ 3.69094152 3.55169658 3.33467    3.40648586 3.41967241 3.35377472
+ 3.34793267 3.41266735 3.36007293 3.54786021 3.40847782 3.40256794
+ 3.66638103 3.54223167 3.58094391 3.5011404  3.66614899 3.50703145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.7333</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>-0.0782</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0.9631</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>0.7995</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>C=2.6796, gamma=79.456, epsilo=0.0322, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>[3.42965953 3.41496711 3.38360223 3.50969533 3.48252838 3.43665334
+ 3.5380405  3.42731208 3.32799113 3.36526811 3.43350135 3.31837341
+ 3.30831859 3.38275469 3.34622777 3.4280045  3.3448531  3.35508
+ 3.50613986 3.47251627 3.48117665 3.41563492 3.50023845 3.37497033]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.7401</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1.3487</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>0.6478</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>C=96675., gamma=7.1237, epsilo=3.1733, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>[3.59455999 3.55851752 3.44144355 3.65285056 3.6552871  3.52521874
+ 3.66599916 3.47980305 3.37597873 3.41699323 3.46984413 3.3724003
+ 3.40096185 3.43074878 3.38825803 3.53723686 3.40356621 3.40625107
+ 3.75359702 3.58112261 3.6075762  3.53495272 3.71614301 3.55952301]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0.6193</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1.6208</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>5.4609</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>5.4610</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>C=3009.4, gamma=0.1103, epsilo=0.0283, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>[3.65536375 3.57685489 3.51616931 3.65676966 3.53104332 3.51727265
+ 3.72671099 3.48728418 3.28728099 3.46280539 3.64563131 3.35069952
+ 3.30006726 3.39479351 3.36911972 3.56300548 3.36849107 3.40408791
+ 3.60379301 3.55283739 3.5344512  3.51235193 3.6239848  3.55181168]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.8191</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.8279</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.6709</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0.6855</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1.7831</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>C=597463, gamma=9887.0, epsilo=5.2283, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>[3.63177393 3.59651635 3.41118899 3.62104367 3.60274256 3.51875615
+ 3.71128325 3.56479133 3.33602668 3.5059258  3.65623379 3.37866886
+ 3.35505658 3.35232774 3.31555249 3.55162592 3.37108548 3.4417328
+ 3.56241785 3.52712497 3.48930955 3.47094793 3.64381919 3.54305077]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MA_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.7574</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1.5316</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2.8157</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>2.8164</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>C=558.68, gamma=0.0512, epsilo=7.5334, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>[3.63182673 3.5702973  3.48347637 3.6872423  3.69073257 3.54454397
+ 3.65443779 3.45188727 3.29950483 3.42827991 3.49076351 3.31444025
+ 3.29978172 3.4404312  3.37663999 3.58096937 3.42754171 3.37489169
+ 3.72772013 3.53902098 3.59425016 3.50009401 3.65178812 3.51960533]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.7891</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.8155</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1.7279</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>0.8578</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>C=923277, gamma=9379.6, epsilo=1.3203, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>[3.68703895 3.60147604 3.42979917 3.64850359 3.59062342 3.46532643
+ 3.7397243  3.53261775 3.3170422  3.46930384 3.55582464 3.39757946
+ 3.38438668 3.44696347 3.35127956 3.522684   3.2931774  3.38693859
+ 3.62095675 3.50044026 3.49244139 3.48755499 3.63725533 3.55259951]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.7047</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.6919</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>0.4788</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1.3851</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>14.9770</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>14.9777</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>C=13987., gamma=0.0024, epsilo=8.1245, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>[3.59894215 3.53236744 3.46146767 3.69590798 3.69811303 3.52000994
+ 3.67026073 3.52092218 3.30212475 3.36721344 3.33182497 3.32818492
+ 3.36098565 3.43131107 3.41845771 3.55511976 3.42916119 3.38193993
+ 3.70692569 3.52518004 3.62603277 3.49497111 3.66680764 3.51920077]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.6470</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.7254</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1.4528</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>C=242002, gamma=67.868, epsilo=5.0984, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>[3.62031317 3.54601223 3.54866394 3.62176567 3.53726141 3.50832424
+ 3.80725842 3.52160939 3.34925391 3.42028982 3.50118119 3.40274833
+ 3.29354917 3.38508182 3.4742531  3.60017837 3.3586286  3.46228058
+ 3.66451959 3.52927325 3.49636085 3.52138842 3.61429363 3.5877479 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NONE_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.6990</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>0.4887</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1.3985</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2.2272</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>13.1303</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>13.1306</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>C=541.99, gamma=0.1398, epsilo=1.2318, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>[3.67020421 3.59198123 3.4905912  3.70255404 3.57562678 3.52690919
+ 3.71425128 3.44529213 3.31822004 3.48429397 3.57135371 3.32039914
+ 3.30340431 3.40464676 3.33040236 3.58846455 3.39604473 3.38662663
+ 3.73669567 3.58776612 3.59772967 3.52302584 3.62789615 3.54278854]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>MSC_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.7790</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1.3739</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>1.2368</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>1.2368</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>C=8233.8, gamma=0.0174, epsilo=0.0164, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>[3.62114958 3.58467863 3.46137683 3.69101484 3.63255672 3.52326464
+ 3.69210136 3.53472721 3.34948576 3.44031615 3.45301414 3.39108782
+ 3.36243279 3.39738634 3.35325045 3.49981482 3.42287911 3.42194788
+ 3.76582222 3.63704864 3.65712438 3.51204946 3.74742535 3.53152919]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SNV_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.7141</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.5546</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>0.5099</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1.4284</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>1.4143</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>1.4153</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>C=16.368, gamma=0.2967, epsilo=0.0286, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>[3.586189   3.53880554 3.44659718 3.68653464 3.63204497 3.5409858
+ 3.718995   3.5406741  3.32343889 3.4253645  3.50097141 3.34808275
+ 3.33896592 3.43335313 3.38847677 3.51957776 3.40250915 3.42095988
+ 3.72926671 3.63150282 3.65010239 3.51581067 3.73182744 3.49016219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DWT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.7208</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.8426</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>1.8566</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>0.9406</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>13.4581</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>13.4584</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>C=220433, gamma=0.0077, epsilo=0.0002, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>[3.66042373 3.62257797 3.53158399 3.68164704 3.57277538 3.56605122
+ 3.70792649 3.61122088 3.36954757 3.47882262 3.60577555 3.39709005
+ 3.26154168 3.36525485 3.33024166 3.53029113 3.43152541 3.4218146
+ 3.56668441 3.51559546 3.5069704  3.50451037 3.58858498 3.52225385]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>D1_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0.8188</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.8269</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.6704</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>1.7784</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>0.4730</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>C=6548.6, gamma=9376.3, epsilo=1.7301, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>[3.63164376 3.59659099 3.41042615 3.62150776 3.60229588 3.52036855
+ 3.71048435 3.56583834 3.33664273 3.50599966 3.65785837 3.37844993
+ 3.35439665 3.35131915 3.31325766 3.55236724 3.37148166 3.44170163
+ 3.5604016  3.52750732 3.48950527 3.47029424 3.64495364 3.5434194 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>MA_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>1.4935</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>5.5254</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>5.5254</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>C=214215, gamma=0.0008, epsilo=1.1160, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>[3.60209625 3.56612218 3.47541818 3.67413316 3.58488264 3.49825031
+ 3.68334982 3.55536725 3.35911422 3.4264982  3.42841302 3.38342427
+ 3.35099545 3.39499779 3.3255558  3.52372846 3.41648611 3.40055348
+ 3.66375716 3.57012738 3.59754782 3.51226009 3.68162342 3.52035323]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.8430</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.8130</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.7106</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1.7174</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>0.5091</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>C=1.9632, gamma=1252.2, epsilo=4.7331, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>[3.61114424 3.54096191 3.41006655 3.64852644 3.62302593 3.5377754
+ 3.69755496 3.56374083 3.28535205 3.40797536 3.5616079  3.35655885
+ 3.34250065 3.4434103  3.40484623 3.56232895 3.31331573 3.3966605
+ 3.64292033 3.53955967 3.53397331 3.48113712 3.69506877 3.51289515]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SG_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.7155</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>0.5120</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>1.4314</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>5.8679</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>5.8682</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>C=352515, gamma=0.0459, epsilo=0.1786, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>[3.60878321 3.57587781 3.49277886 3.61932773 3.65977588 3.53504627
+ 3.56222056 3.46865403 3.41167144 3.45101606 3.53447385 3.42158588
+ 3.4158491  3.41044628 3.48635524 3.49014006 3.41555709 3.36727595
+ 3.56493332 3.42817187 3.45062811 3.48225688 3.52533142 3.52622024]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DT_NONE_SVR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.8106</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.7805</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.6571</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1.5996</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>0.9680</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>0.9686</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>C=206439, gamma=0.0048, epsilo=0.0345, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>[3.62390871 3.58551137 3.46740586 3.68739999 3.56843547 3.47805799
+ 3.71036016 3.57928455 3.34808267 3.43531558 3.45701607 3.40710559
+ 3.31116027 3.38844768 3.33128342 3.49908543 3.39499278 3.43615346
+ 3.6708098  3.5782278  3.58373132 3.51180144 3.69886208 3.50228891]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NONE_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.5454</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>0.5536</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>1.4967</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2.3894</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>14.3141</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>14.3141</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>C=81956., gamma=0.0009, epsilo=1.3340, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>[3.60357299 3.54297426 3.47697802 3.68327613 3.63002152 3.48745792
+ 3.66660686 3.53825592 3.30728453 3.36817309 3.35791617 3.35430267
+ 3.35313267 3.40871435 3.39389186 3.52956218 3.40367987 3.36636524
+ 3.65201476 3.52173768 3.5847995  3.48097234 3.66564171 3.51407438]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>MSC_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.7498</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.6831</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.5622</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1.3692</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>C=1.3731, gamma=20.368, epsilo=0.0032, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>[3.5880991  3.54402156 3.43588221 3.69070309 3.67920824 3.57146308
+ 3.71159554 3.49839678 3.36176392 3.44748779 3.53163226 3.32826767
+ 3.36498161 3.45431578 3.3950792  3.5733135  3.40884133 3.4273043
+ 3.75572594 3.6006582  3.62609219 3.55897907 3.71008181 3.53278845]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SNV_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.5745</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1.2217</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>C=362102, gamma=8.2875, epsilo=0.0010, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>[3.56837911 3.52480637 3.43526802 3.67356406 3.75795307 3.54713292
+ 3.78041573 3.43504274 3.33117492 3.35665942 3.47731103 3.33075033
+ 3.22861471 3.4730085  3.51632157 3.64910977 3.39481614 3.43232092
+ 3.71869239 3.64959174 3.66458372 3.60427263 3.79635207 3.5010689 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>DWT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>1.2994</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>1.3560</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>1.3556</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>C=81.691, gamma=0.9893, epsilo=0.0157, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>[3.72134212 3.61439248 3.55234202 3.59744455 3.60163063 3.45745459
+ 3.63608261 3.39352922 3.29939179 3.51006297 3.57226714 3.33837602
+ 3.32124694 3.4252485  3.35571894 3.60717342 3.40269706 3.43523634
+ 3.75107861 3.60187714 3.59106874 3.55388187 3.55902367 3.5117504 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>D1_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.8189</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.6706</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>0.6852</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1.7824</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>C=96.726, gamma=9560.3, epsilo=0.0001, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>[3.63236069 3.59709326 3.41073899 3.62216799 3.60365158 3.52041214
+ 3.71278425 3.56618948 3.33626489 3.50607841 3.65841219 3.37855321
+ 3.35473194 3.35146726 3.3134839  3.5526111  3.37089982 3.44160896
+ 3.56184797 3.52789957 3.48999145 3.47084342 3.64534925 3.54383369]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MA_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.7286</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>1.5405</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>1.9427</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>1.9427</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>C=3651.8, gamma=0.1450, epsilo=0.1416, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>[3.63771399 3.58641469 3.48364332 3.64384765 3.63200633 3.52301597
+ 3.59279639 3.42005012 3.3368609  3.48145153 3.57087483 3.37876577
+ 3.31780789 3.39421415 3.43750142 3.5144434  3.42902372 3.370853
+ 3.63714164 3.4872845  3.50111081 3.50376496 3.54683515 3.48018936]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.8132</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.8240</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>1.7650</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>C=3240.0, gamma=5.4188, epsilo=0.0895, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>[3.61578196 3.55612631 3.42353627 3.64239207 3.60851579 3.48523159
+ 3.64650264 3.5358054  3.32385328 3.42497908 3.51823671 3.42429869
+ 3.35089915 3.42234235 3.37735154 3.50703104 3.33808605 3.38400815
+ 3.57624958 3.48290299 3.48523707 3.44432565 3.64830274 3.4965181 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SG_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0.6845</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1.5048</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>11.9792</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>11.9794</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>C=4901.9, gamma=0.0042, epsilo=0.0785, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>[3.57234088 3.52658559 3.44994761 3.64692654 3.70335457 3.53736681
+ 3.64285631 3.4962255  3.34816162 3.38708435 3.44660416 3.36445112
+ 3.38860735 3.42255402 3.4297063  3.51888465 3.40459365 3.37756589
+ 3.669208   3.51413814 3.56061526 3.49935241 3.63736355 3.52854715]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>DT_PCA_SVR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>0.6781</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>1.7626</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>1.0761</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>1.0754</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>C=19710., gamma=0.0764, epsilo=0.0442, kernel=rbf</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>[3.64983133 3.61368786 3.49370534 3.69191896 3.60424936 3.51737187
+ 3.71666887 3.54903542 3.36928699 3.42547442 3.49815118 3.41793754
+ 3.34994536 3.39041901 3.32771954 3.51532598 3.37148056 3.42255029
+ 3.62370996 3.5398229  3.53766697 3.49622933 3.67435038 3.51317484]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
